--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -673,7 +673,7 @@
         <v>2.52</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -697,19 +697,19 @@
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
         <v>2.68</v>
@@ -736,13 +736,13 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
         <v>20</v>
@@ -751,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,10 +760,10 @@
         <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q3" t="n">
         <v>2.94</v>
@@ -943,16 +943,16 @@
         <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22</v>
+        <v>1.87</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>1.22</v>
+        <v>2.46</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
         <v>3.05</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2.74</v>
       </c>
       <c r="H7" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G9" t="n">
         <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2023,16 +2023,16 @@
         <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="I12" t="n">
         <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>2.12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I18" t="n">
         <v>1.34</v>
@@ -2842,7 +2842,7 @@
         <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>2.04</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,10 +697,10 @@
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
         <v>1.68</v>
@@ -724,55 +724,55 @@
         <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="n">
         <v>25</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>20</v>
-      </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.29</v>
@@ -838,76 +838,76 @@
         <v>2.94</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,16 +1366,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>2.94</v>
       </c>
       <c r="H9" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.26</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.48</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.16</v>
+        <v>2.42</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="I11" t="n">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>2.84</v>
+        <v>1.45</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>2.3</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="H13" t="n">
-        <v>1.97</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.21</v>
+        <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>1.27</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2446,16 +2446,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,17 +2948,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.55</v>
+        <v>3.35</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>3.45</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3472,6 +3472,411 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>980</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Operario PR</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>2.4</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -697,7 +697,7 @@
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
@@ -727,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>55</v>
@@ -736,13 +736,13 @@
         <v>19.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="n">
         <v>25</v>
@@ -754,19 +754,19 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>15.5</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>1.29</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="P3" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="X3" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -940,109 +940,109 @@
         <v>3.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
         <v>2.28</v>
@@ -1081,103 +1081,103 @@
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
@@ -1225,94 +1225,94 @@
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.68</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="V6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.49</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1354,100 +1354,100 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1495,10 +1495,10 @@
         <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
         <v>1.57</v>
@@ -1513,76 +1513,76 @@
         <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="H9" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="I9" t="n">
         <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="O9" t="n">
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.08</v>
+        <v>2.56</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1894,100 +1894,100 @@
         <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="K11" t="n">
         <v>7.6</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P11" t="n">
         <v>1.71</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,118 +2017,118 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="H12" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="I12" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="J12" t="n">
-        <v>2.28</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.05</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
         <v>4.4</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.21</v>
+        <v>3.3</v>
       </c>
       <c r="G15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.27</v>
       </c>
-      <c r="H15" t="n">
+      <c r="P15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>16</v>
       </c>
-      <c r="I15" t="n">
-        <v>21</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.61</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.35</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>1.61</v>
       </c>
       <c r="H20" t="n">
-        <v>2.24</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>1.92</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>1.87</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>1.41</v>
+        <v>2.62</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>95</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AI20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>5.3</v>
       </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>1.34</v>
+        <v>2.24</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>2.72</v>
       </c>
       <c r="K21" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.79</v>
+        <v>2.96</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,17 +3353,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,17 +3623,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
         <v>1.01</v>
@@ -3748,135 +3748,945 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Paraguayan Primera Division</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Club Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chilean Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Operario PR</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Nacional (Par)</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Cerro Porteno</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="Q31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -682,49 +682,49 @@
         <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T2" t="n">
         <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -733,10 +733,10 @@
         <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
@@ -745,10 +745,10 @@
         <v>28</v>
       </c>
       <c r="AF2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -760,19 +760,19 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.76</v>
+        <v>2.56</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
         <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
@@ -967,16 +967,16 @@
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
         <v>1.79</v>
@@ -985,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1003,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>9.6</v>
@@ -1012,13 +1012,13 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>23</v>
@@ -1075,10 +1075,10 @@
         <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
         <v>4.1</v>
@@ -1102,7 +1102,7 @@
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
         <v>2.16</v>
@@ -1120,10 +1120,10 @@
         <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
@@ -1132,7 +1132,7 @@
         <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>80</v>
@@ -1162,19 +1162,19 @@
         <v>70</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
         <v>65</v>
@@ -1237,7 +1237,7 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
@@ -1285,7 +1285,7 @@
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
@@ -1300,7 +1300,7 @@
         <v>50</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
         <v>32</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
@@ -1381,7 +1381,7 @@
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="H8" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
@@ -1492,7 +1492,7 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,7 +1510,7 @@
         <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>2.76</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1642,16 +1642,16 @@
         <v>1.31</v>
       </c>
       <c r="P9" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>1.74</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="P10" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="H11" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,22 +1906,22 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="R11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2065,7 +2065,7 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W12" t="n">
         <v>1.11</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
         <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
         <v>4.7</v>
@@ -2173,7 +2173,7 @@
         <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>3.05</v>
@@ -2182,10 +2182,10 @@
         <v>1.34</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
         <v>1.32</v>
@@ -2194,67 +2194,67 @@
         <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
         <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
         <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2290,19 +2290,19 @@
         <v>5.2</v>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="n">
         <v>1.74</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2326,22 +2326,22 @@
         <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
       </c>
       <c r="X14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
         <v>10.5</v>
@@ -2368,13 +2368,13 @@
         <v>50</v>
       </c>
       <c r="AG14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
         <v>140</v>
@@ -2392,7 +2392,7 @@
         <v>75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="15">
@@ -2455,16 +2455,16 @@
         <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
         <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
         <v>2.02</v>
@@ -2485,10 +2485,10 @@
         <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -2497,28 +2497,28 @@
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
         <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
         <v>3.3</v>
@@ -2593,10 +2593,10 @@
         <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1.99</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,10 +2605,10 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2713,7 +2713,7 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>4.9</v>
@@ -2731,13 +2731,13 @@
         <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="U17" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="V17" t="n">
         <v>1.04</v>
@@ -2776,7 +2776,7 @@
         <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>330</v>
@@ -2863,13 +2863,13 @@
         <v>1.69</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
         <v>2.46</v>
       </c>
       <c r="T18" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
         <v>2.08</v>
@@ -2884,13 +2884,13 @@
         <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>18</v>
@@ -2914,25 +2914,25 @@
         <v>17.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
         <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.15</v>
@@ -2977,7 +2977,7 @@
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.36</v>
@@ -2986,88 +2986,88 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P19" t="n">
         <v>1.94</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH19" t="n">
         <v>21</v>
       </c>
-      <c r="AE19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>25</v>
-      </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL19" t="n">
         <v>46</v>
       </c>
-      <c r="AK19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>55</v>
-      </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G20" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>4.3</v>
@@ -3121,7 +3121,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="O20" t="n">
         <v>1.3</v>
@@ -3130,79 +3130,79 @@
         <v>1.92</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S20" t="n">
-        <v>1.87</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF20" t="n">
         <v>11</v>
       </c>
-      <c r="AC20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13</v>
-      </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
@@ -3235,31 +3235,31 @@
         <v>5.3</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
         <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="K21" t="n">
         <v>3.05</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
         <v>1.42</v>
@@ -3268,76 +3268,76 @@
         <v>2.96</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3790,7 +3790,7 @@
         <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3811,13 +3811,13 @@
         <v>1.45</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
         <v>1.78</v>
@@ -3826,55 +3826,55 @@
         <v>1.41</v>
       </c>
       <c r="X25" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
         <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>29</v>
       </c>
       <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
         <v>16</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK25" t="n">
         <v>36</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>38</v>
-      </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -3910,31 +3910,31 @@
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="H26" t="n">
         <v>1.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="K26" t="n">
         <v>6.2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
         <v>2.04</v>
@@ -3943,76 +3943,76 @@
         <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="27">
@@ -4060,94 +4060,94 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
         <v>5.7</v>
@@ -4189,100 +4189,100 @@
         <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
         <v>5.3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
         <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P29" t="n">
         <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,34 +4447,34 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
         <v>2.42</v>
@@ -4483,76 +4483,76 @@
         <v>1.59</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -4600,94 +4600,94 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
         <v>1.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -691,28 +691,28 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S2" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.48</v>
@@ -736,10 +736,10 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>28</v>
@@ -751,25 +751,25 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O3" t="n">
         <v>1.63</v>
@@ -835,7 +835,7 @@
         <v>1.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
@@ -850,16 +850,16 @@
         <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="X3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -868,22 +868,22 @@
         <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>36</v>
@@ -895,7 +895,7 @@
         <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
         <v>95</v>
@@ -904,7 +904,7 @@
         <v>340</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO3" t="n">
         <v>220</v>
@@ -943,10 +943,10 @@
         <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
@@ -967,10 +967,10 @@
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.31</v>
@@ -979,16 +979,16 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
         <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1099,25 +1099,25 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R5" t="n">
         <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
         <v>1.88</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
         <v>1.33</v>
@@ -1132,7 +1132,7 @@
         <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
         <v>80</v>
@@ -1159,25 +1159,25 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1225,7 +1225,7 @@
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1243,7 +1243,7 @@
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
         <v>2.04</v>
@@ -1261,7 +1261,7 @@
         <v>1.49</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Y6" t="n">
         <v>18</v>
@@ -1270,7 +1270,7 @@
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>19.5</v>
@@ -1294,10 +1294,10 @@
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1306,7 +1306,7 @@
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AN6" t="n">
         <v>15.5</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>2.68</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,22 +1615,22 @@
         <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="H9" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1645,25 +1645,25 @@
         <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>1.74</v>
+        <v>2.84</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1756,7 +1756,7 @@
         <v>2.74</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
@@ -1765,7 +1765,7 @@
         <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M10" t="n">
         <v>1.16</v>
@@ -1798,7 +1798,7 @@
         <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>7.2</v>
@@ -1807,7 +1807,7 @@
         <v>8.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>70</v>
@@ -1825,13 +1825,13 @@
         <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
         <v>140</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="O11" t="n">
         <v>1.31</v>
       </c>
       <c r="P11" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="H12" t="n">
         <v>1.51</v>
@@ -2065,7 +2065,7 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W12" t="n">
         <v>1.11</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2176,70 +2176,70 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
         <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
         <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
         <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
         <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
         <v>30</v>
@@ -2254,10 +2254,10 @@
         <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2296,13 +2296,13 @@
         <v>1.72</v>
       </c>
       <c r="I14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.35</v>
@@ -2311,31 +2311,31 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q14" t="n">
         <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="W14" t="n">
         <v>1.22</v>
@@ -2344,7 +2344,7 @@
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -2374,7 +2374,7 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
         <v>140</v>
@@ -2392,13 +2392,13 @@
         <v>75</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,28 +2413,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2443,97 +2443,97 @@
         <v>1.35</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.55</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.7</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD15" t="n">
         <v>980</v>
       </c>
-      <c r="AB15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
       </c>
       <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
         <v>980</v>
       </c>
-      <c r="AM15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>42</v>
-      </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="W16" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="G17" t="n">
-        <v>1.25</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH17" t="n">
         <v>17.5</v>
       </c>
-      <c r="I17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W17" t="n">
-        <v>5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AI17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>75</v>
       </c>
-      <c r="AE17" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>330</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9</v>
-      </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.9</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.65</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>1.25</v>
       </c>
       <c r="H18" t="n">
-        <v>1.98</v>
+        <v>17.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC18" t="n">
         <v>18</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>480</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>330</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>4.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
         <v>3.15</v>
@@ -2980,31 +2980,31 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.29</v>
       </c>
       <c r="P19" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R19" t="n">
         <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
         <v>1.98</v>
@@ -3013,13 +3013,13 @@
         <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
         <v>29</v>
@@ -3034,13 +3034,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
@@ -3067,7 +3067,7 @@
         <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H20" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="I20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
         <v>4.3</v>
@@ -3121,46 +3121,46 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="AB20" t="n">
         <v>9.4</v>
@@ -3169,10 +3169,10 @@
         <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
@@ -3181,28 +3181,28 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>2.04</v>
@@ -3271,7 +3271,7 @@
         <v>1.15</v>
       </c>
       <c r="S21" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="T21" t="n">
         <v>2.08</v>
@@ -3316,10 +3316,10 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
         <v>180</v>
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.46</v>
+        <v>2.82</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3517,7 +3517,7 @@
         <v>2.8</v>
       </c>
       <c r="K23" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>1.41</v>
@@ -3661,28 +3661,28 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q24" t="n">
         <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
         <v>2.16</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V24" t="n">
         <v>1.31</v>
@@ -3787,10 +3787,10 @@
         <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3838,7 +3838,7 @@
         <v>29</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>8.199999999999999</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G26" t="n">
         <v>13.5</v>
@@ -3919,10 +3919,10 @@
         <v>1.35</v>
       </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K26" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.37</v>
@@ -3943,10 +3943,10 @@
         <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
         <v>2.32</v>
@@ -3973,10 +3973,10 @@
         <v>10.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
         <v>11.5</v>
@@ -3988,13 +3988,13 @@
         <v>150</v>
       </c>
       <c r="AG26" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4003,13 +4003,13 @@
         <v>320</v>
       </c>
       <c r="AL26" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AO26" t="n">
         <v>6.6</v>
@@ -4201,22 +4201,22 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="O28" t="n">
         <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R28" t="n">
         <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T28" t="n">
         <v>1.01</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
         <v>980</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K29" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4363,7 +4363,7 @@
         <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H30" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="I30" t="n">
         <v>2.98</v>
@@ -4462,37 +4462,37 @@
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>1.05</v>
+        <v>5.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R30" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S30" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T30" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V30" t="n">
         <v>1.5</v>
@@ -4501,7 +4501,7 @@
         <v>1.64</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
         <v>18</v>
@@ -4516,7 +4516,7 @@
         <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
         <v>14</v>
@@ -4549,7 +4549,7 @@
         <v>60</v>
       </c>
       <c r="AN30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
         <v>20</v>
@@ -4688,6 +4688,411 @@
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Minnesota Utd</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G2" t="n">
         <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -685,52 +685,52 @@
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
         <v>2.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
@@ -739,7 +739,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE2" t="n">
         <v>28</v>
@@ -751,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -766,10 +766,10 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -811,7 +811,7 @@
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.82</v>
@@ -940,19 +940,19 @@
         <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -976,19 +976,19 @@
         <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>16.5</v>
@@ -1096,7 +1096,7 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
         <v>1.41</v>
@@ -1114,7 +1114,7 @@
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
         <v>1.94</v>
@@ -1132,7 +1132,7 @@
         <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
         <v>80</v>
@@ -1162,22 +1162,22 @@
         <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
         <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
         <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
         <v>1.48</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="T6" t="n">
         <v>1.48</v>
@@ -1255,10 +1255,10 @@
         <v>2.68</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X6" t="n">
         <v>30</v>
@@ -1483,16 +1483,16 @@
         <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.4</v>
@@ -1501,13 +1501,13 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
         <v>2.02</v>
@@ -1516,10 +1516,10 @@
         <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1615,43 +1615,43 @@
         <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.84</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
         <v>1.69</v>
@@ -1660,10 +1660,10 @@
         <v>1.99</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.15</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.65</v>
@@ -1771,13 +1771,13 @@
         <v>1.16</v>
       </c>
       <c r="N10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O10" t="n">
         <v>1.77</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q10" t="n">
         <v>3</v>
@@ -1789,25 +1789,25 @@
         <v>1.02</v>
       </c>
       <c r="T10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U10" t="n">
         <v>1.56</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X10" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>70</v>
@@ -1816,7 +1816,7 @@
         <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
         <v>980</v>
@@ -1825,16 +1825,16 @@
         <v>70</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ10" t="n">
         <v>95</v>
@@ -1852,7 +1852,7 @@
         <v>140</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>2.32</v>
       </c>
       <c r="I11" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
         <v>2.96</v>
@@ -1900,34 +1900,34 @@
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>1.78</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
         <v>1.51</v>
@@ -1936,58 +1936,58 @@
         <v>1.4</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>16.5</v>
+        <v>9.6</v>
       </c>
       <c r="H12" t="n">
         <v>1.51</v>
@@ -2029,22 +2029,22 @@
         <v>1.66</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>1.94</v>
@@ -2053,19 +2053,19 @@
         <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V12" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.11</v>
@@ -2152,64 +2152,64 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
         <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
         <v>3.65</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
         <v>38</v>
@@ -2218,10 +2218,10 @@
         <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>18</v>
@@ -2236,7 +2236,7 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>70</v>
@@ -2254,7 +2254,7 @@
         <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO13" t="n">
         <v>70</v>
@@ -2296,7 +2296,7 @@
         <v>1.72</v>
       </c>
       <c r="I14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J14" t="n">
         <v>4.1</v>
@@ -2311,37 +2311,37 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
         <v>1.72</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
         <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -2356,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
         <v>10</v>
@@ -2368,10 +2368,10 @@
         <v>50</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
         <v>2.58</v>
@@ -2431,13 +2431,13 @@
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.35</v>
@@ -2446,13 +2446,13 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
         <v>1.98</v>
@@ -2461,16 +2461,16 @@
         <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
         <v>1.63</v>
@@ -2479,7 +2479,7 @@
         <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2488,37 +2488,37 @@
         <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
         <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>120</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
         <v>3.75</v>
@@ -2566,13 +2566,13 @@
         <v>2.12</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2593,25 +2593,25 @@
         <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="T16" t="n">
         <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
         <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
         <v>11.5</v>
@@ -2623,7 +2623,7 @@
         <v>30</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
@@ -2638,10 +2638,10 @@
         <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
         <v>36</v>
@@ -2692,46 +2692,46 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
         <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
         <v>1.65</v>
@@ -2839,19 +2839,19 @@
         <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K18" t="n">
         <v>8.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -2860,19 +2860,19 @@
         <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
         <v>2.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U18" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V18" t="n">
         <v>1.04</v>
@@ -2929,7 +2929,7 @@
         <v>340</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,13 +2965,13 @@
         <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
         <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
@@ -2980,7 +2980,7 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2998,7 +2998,7 @@
         <v>1.89</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S19" t="n">
         <v>3.2</v>
@@ -3007,13 +3007,13 @@
         <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3049,7 +3049,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
         <v>38</v>
@@ -3058,7 +3058,7 @@
         <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="n">
         <v>110</v>
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G20" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
         <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="T20" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
         <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="X20" t="n">
         <v>20</v>
@@ -3160,7 +3160,7 @@
         <v>75</v>
       </c>
       <c r="AA20" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AB20" t="n">
         <v>9.4</v>
@@ -3172,7 +3172,7 @@
         <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
@@ -3181,28 +3181,28 @@
         <v>12</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
         <v>9.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3232,49 +3232,49 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I21" t="n">
         <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="n">
         <v>3.05</v>
       </c>
       <c r="L21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N21" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
         <v>2.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S21" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="U21" t="n">
         <v>1.65</v>
@@ -3283,7 +3283,7 @@
         <v>1.9</v>
       </c>
       <c r="W21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
         <v>7.2</v>
@@ -3292,10 +3292,10 @@
         <v>6.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3316,13 +3316,13 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AK21" t="n">
         <v>130</v>
@@ -3334,7 +3334,7 @@
         <v>390</v>
       </c>
       <c r="AN21" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="n">
         <v>34</v>
@@ -3370,7 +3370,7 @@
         <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>2.82</v>
@@ -3379,10 +3379,10 @@
         <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>1.46</v>
@@ -3400,7 +3400,7 @@
         <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
         <v>1.2</v>
@@ -3409,13 +3409,13 @@
         <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="V22" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
         <v>1.47</v>
@@ -3502,67 +3502,67 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="J23" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.52</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P23" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>2.14</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3637,61 +3637,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U24" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="V24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3778,10 +3778,10 @@
         <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3805,7 +3805,7 @@
         <v>2.16</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
         <v>1.45</v>
@@ -3820,7 +3820,7 @@
         <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="W25" t="n">
         <v>1.41</v>
@@ -3937,25 +3937,25 @@
         <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
         <v>1.79</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V26" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="W26" t="n">
         <v>1.08</v>
@@ -3973,13 +3973,13 @@
         <v>10.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
         <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>980</v>
@@ -3988,19 +3988,19 @@
         <v>150</v>
       </c>
       <c r="AG26" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AH26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AL26" t="n">
         <v>240</v>
@@ -4069,19 +4069,19 @@
         <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4177,34 +4177,34 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G28" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
         <v>5.7</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>1.99</v>
+        <v>3.95</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4213,16 +4213,16 @@
         <v>1.83</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S28" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
         <v>1.18</v>
@@ -4240,13 +4240,13 @@
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4255,10 +4255,10 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4276,10 +4276,10 @@
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,94 +4312,94 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="O29" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W29" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="X29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG29" t="n">
         <v>12</v>
       </c>
-      <c r="Y29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH29" t="n">
         <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
@@ -4411,10 +4411,10 @@
         <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,19 +4450,19 @@
         <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.27</v>
@@ -4471,31 +4471,31 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S30" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T30" t="n">
         <v>1.55</v>
       </c>
       <c r="U30" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V30" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W30" t="n">
         <v>1.64</v>
@@ -4516,7 +4516,7 @@
         <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD30" t="n">
         <v>14</v>
@@ -4528,7 +4528,7 @@
         <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
         <v>15</v>
@@ -4549,10 +4549,10 @@
         <v>60</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -4723,13 +4723,13 @@
         <v>1.43</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K32" t="n">
         <v>6.4</v>
@@ -4852,112 +4852,112 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="G33" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
         <v>11</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>470</v>
+      </c>
+      <c r="AF33" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="AJ33" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK33" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>290</v>
+        <v>960</v>
       </c>
       <c r="AN33" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>330</v>
+        <v>960</v>
       </c>
     </row>
     <row r="34">
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G34" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J34" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K34" t="n">
         <v>3.75</v>
@@ -5032,7 +5032,7 @@
         <v>1.67</v>
       </c>
       <c r="U34" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
         <v>1.58</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
         <v>3.05</v>
@@ -688,7 +688,7 @@
         <v>1.29</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>5.7</v>
@@ -697,22 +697,22 @@
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.49</v>
@@ -721,7 +721,7 @@
         <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="P3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
         <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -868,7 +868,7 @@
         <v>170</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
         <v>7.6</v>
@@ -880,13 +880,13 @@
         <v>120</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>160</v>
@@ -895,7 +895,7 @@
         <v>38</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>95</v>
@@ -904,7 +904,7 @@
         <v>340</v>
       </c>
       <c r="AN3" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
         <v>220</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>2.18</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>2.02</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>2.18</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="P5" t="n">
         <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="W5" t="n">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK5" t="n">
         <v>65</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>980</v>
-      </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>3.95</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.48</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>2.68</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="W6" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN6" t="n">
         <v>30</v>
       </c>
-      <c r="Y6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>1.29</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>1.28</v>
+        <v>2.74</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>1.02</v>
+        <v>2.24</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,118 +1468,118 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.7</v>
+        <v>1.29</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.93</v>
+        <v>2.68</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>2.74</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
-        <v>1.77</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.34</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>1.02</v>
+        <v>1.87</v>
       </c>
       <c r="T10" t="n">
-        <v>2.24</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>1.56</v>
+        <v>1.99</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>2.94</v>
       </c>
       <c r="L11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.34</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>1.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.7</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC12" t="n">
         <v>9.6</v>
       </c>
-      <c r="H12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>1.57</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>1.79</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>2.18</v>
       </c>
       <c r="W13" t="n">
-        <v>1.95</v>
+        <v>1.16</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5.2</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>5.6</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.72</v>
       </c>
-      <c r="I14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="V14" t="n">
-        <v>2.28</v>
+        <v>1.28</v>
       </c>
       <c r="W14" t="n">
-        <v>1.21</v>
+        <v>1.85</v>
       </c>
       <c r="X14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>140</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.800000000000001</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE15" t="n">
         <v>70</v>
       </c>
-      <c r="AB15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>980</v>
-      </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>5.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="I16" t="n">
-        <v>2.28</v>
+        <v>1.71</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG16" t="n">
         <v>24</v>
       </c>
-      <c r="AF16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>970</v>
-      </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G17" t="n">
         <v>3.75</v>
       </c>
-      <c r="G17" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>2.48</v>
+        <v>2.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="U17" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
         <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.2</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="H18" t="n">
-        <v>17.5</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.34</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>1.63</v>
       </c>
       <c r="X18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.4</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.26</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2.42</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>2.04</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.96</v>
       </c>
       <c r="W19" t="n">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM19" t="n">
         <v>75</v>
       </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>110</v>
-      </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="G20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.6</v>
       </c>
-      <c r="H20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>2.66</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Z20" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="AA20" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
         <v>9.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.4</v>
+        <v>2.26</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>2.02</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>3.55</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.96</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>1.65</v>
+        <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AG21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="n">
         <v>26</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AL21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO21" t="n">
         <v>980</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.66</v>
+        <v>1.43</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>1.53</v>
       </c>
       <c r="H22" t="n">
-        <v>2.82</v>
+        <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>1.74</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="T22" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>1.47</v>
+        <v>2.88</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF22" t="n">
         <v>11</v>
       </c>
-      <c r="AC22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.96</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.28</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>2.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="V23" t="n">
-        <v>1.53</v>
+        <v>1.92</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z23" t="n">
         <v>11</v>
       </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,75 +3623,75 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Newcastle U21</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.35</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="H25" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>2.78</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.84</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>1.71</v>
       </c>
       <c r="V25" t="n">
-        <v>1.77</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11.5</v>
+        <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>13.5</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.33</v>
+        <v>2.82</v>
       </c>
       <c r="I26" t="n">
-        <v>1.35</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>2.66</v>
       </c>
       <c r="K26" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="U26" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>3.75</v>
+        <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="X26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,78 +4028,78 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>1.25</v>
+        <v>2.82</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>1.46</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.59</v>
+        <v>3.35</v>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>3.45</v>
       </c>
       <c r="H28" t="n">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="I28" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R28" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>1.41</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AN28" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.04</v>
+        <v>12.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.22</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="I29" t="n">
-        <v>5.4</v>
+        <v>1.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>2.66</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
       <c r="P29" t="n">
-        <v>1.56</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.46</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="U29" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.24</v>
+        <v>3.9</v>
       </c>
       <c r="W29" t="n">
-        <v>1.82</v>
+        <v>1.08</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD29" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>21</v>
-      </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>12.5</v>
+        <v>140</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>480</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="P30" t="n">
-        <v>2.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="R30" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.48</v>
+        <v>1.46</v>
       </c>
       <c r="T30" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,72 +4568,72 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>3.95</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="R31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.18</v>
       </c>
-      <c r="S31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4645,13 +4645,13 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,10 +4660,10 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4681,10 +4681,10 @@
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4703,111 +4703,111 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.35</v>
+        <v>2.06</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43</v>
+        <v>2.18</v>
       </c>
       <c r="H32" t="n">
-        <v>9.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="O32" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="P32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3.2</v>
-      </c>
       <c r="X32" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB32" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>14</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.6</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4816,10 +4816,10 @@
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN32" t="n">
-        <v>9.4</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,261 +4838,666 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.22</v>
+        <v>2.46</v>
       </c>
       <c r="G33" t="n">
-        <v>1.28</v>
+        <v>2.54</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>2.82</v>
       </c>
       <c r="I33" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="n">
         <v>21</v>
-      </c>
-      <c r="J33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.4</v>
       </c>
       <c r="AG33" t="n">
         <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>340</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.800000000000001</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM33" t="n">
         <v>60</v>
       </c>
-      <c r="AM33" t="n">
-        <v>960</v>
-      </c>
       <c r="AN33" t="n">
-        <v>4.5</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
-        <v>960</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>15</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>960</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>US MLS</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Minnesota Utd</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Seattle Sounders</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="F37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H37" t="n">
         <v>2.6</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>2.72</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="J37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M37" t="n">
         <v>1.06</v>
       </c>
-      <c r="N34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V34" t="n">
+      <c r="N37" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.58</v>
       </c>
-      <c r="W34" t="n">
+      <c r="W37" t="n">
         <v>1.52</v>
       </c>
-      <c r="X34" t="n">
+      <c r="X37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="n">
         <v>21</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AG37" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AH37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL37" t="n">
         <v>40</v>
       </c>
-      <c r="AB34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="n">
+      <c r="AM37" t="n">
         <v>80</v>
       </c>
-      <c r="AN34" t="n">
+      <c r="AN37" t="n">
         <v>24</v>
       </c>
-      <c r="AO34" t="n">
-        <v>21</v>
+      <c r="AO37" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,16 +670,16 @@
         <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
         <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -715,7 +715,7 @@
         <v>2.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>1.67</v>
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>14.5</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
         <v>3.15</v>
@@ -829,91 +829,91 @@
         <v>2.16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="P3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
         <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="AN3" t="n">
         <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>FC Ararat Yerevan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>1.11</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>1.26</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.01</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.54</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="H5" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>3.95</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10</v>
-      </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AO6" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>2.74</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>2.74</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="X7" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>980</v>
       </c>
-      <c r="AB7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>1.29</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.28</v>
+        <v>2.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>1.02</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>1.66</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>1.71</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.68</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="T9" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
       <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
         <v>19</v>
       </c>
-      <c r="AE9" t="n">
-        <v>65</v>
-      </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,67 +1738,67 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
-        <v>2.74</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.82</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.93</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.87</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.99</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.96</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>2.42</v>
       </c>
       <c r="H11" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.6</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.02</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="X11" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="I12" t="n">
-        <v>2.74</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.57</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" t="n">
         <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>2.18</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,34 +2278,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>2.74</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2314,91 +2314,91 @@
         <v>2.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>980</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>500</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>1.13</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>3.65</v>
+        <v>1.13</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>1.97</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.65</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.35</v>
-      </c>
       <c r="M16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.05</v>
       </c>
-      <c r="N16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.88</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.77</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="V16" t="n">
-        <v>2.4</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>6.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL16" t="n">
         <v>150</v>
       </c>
-      <c r="AK16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
       <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AO16" t="n">
         <v>100</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="G17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.75</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.98</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>1.29</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>1.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="W18" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.04</v>
+        <v>980</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>1.14</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.96</v>
+        <v>1.02</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X20" t="n">
         <v>17.5</v>
       </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>27</v>
-      </c>
       <c r="Y20" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>75</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>480</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI20" t="n">
         <v>980</v>
       </c>
-      <c r="AI20" t="n">
-        <v>330</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO20" t="n">
         <v>16</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Wieczysta Krakow</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>1.81</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="G22" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="H22" t="n">
-        <v>6.8</v>
+        <v>16.5</v>
       </c>
       <c r="I22" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="S22" t="n">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="U22" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="V22" t="n">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="W22" t="n">
-        <v>2.88</v>
+        <v>4.7</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Z22" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
         <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="I23" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>2.44</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.16</v>
-      </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="U23" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="W23" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="X23" t="n">
-        <v>7.2</v>
+        <v>19.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AA23" t="n">
         <v>25</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AH23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI23" t="n">
         <v>980</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>85</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>190</v>
-      </c>
       <c r="AK23" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>390</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="AO23" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Newcastle U21</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>1.62</v>
+        <v>3.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.14</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.71</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>1.44</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.52</v>
       </c>
       <c r="H26" t="n">
-        <v>2.82</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="W26" t="n">
-        <v>1.47</v>
+        <v>2.92</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF26" t="n">
         <v>11</v>
       </c>
-      <c r="AC26" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N27" t="n">
         <v>2.44</v>
       </c>
-      <c r="I27" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.82</v>
-      </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="P27" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="V27" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="W27" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Newcastle U21</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.35</v>
+        <v>1.05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="H28" t="n">
-        <v>2.26</v>
+        <v>1.06</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="P28" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>3.1</v>
+        <v>1.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>2.38</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>12.5</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>13</v>
+        <v>2.52</v>
       </c>
       <c r="H29" t="n">
-        <v>1.33</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.35</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="R29" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="U29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V29" t="n">
-        <v>3.9</v>
+        <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.08</v>
+        <v>1.66</v>
       </c>
       <c r="X29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>40</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,72 +4433,72 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="O30" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.46</v>
+        <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,90 +4568,90 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>5.8</v>
+        <v>2.42</v>
       </c>
       <c r="I31" t="n">
-        <v>6.8</v>
+        <v>2.98</v>
       </c>
       <c r="J31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S31" t="n">
         <v>4</v>
       </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T31" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.74</v>
       </c>
-      <c r="U31" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="W31" t="n">
-        <v>2.4</v>
+        <v>1.36</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,10 +4660,10 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4681,10 +4681,10 @@
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.06</v>
+        <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>2.18</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>4.3</v>
+        <v>2.28</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="S32" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.76</v>
       </c>
-      <c r="V32" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="X32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>21</v>
-      </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI32" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.46</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>2.54</v>
+        <v>13.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.82</v>
+        <v>1.32</v>
       </c>
       <c r="I33" t="n">
-        <v>2.96</v>
+        <v>1.35</v>
       </c>
       <c r="J33" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V33" t="n">
         <v>3.8</v>
       </c>
-      <c r="K33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.51</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.64</v>
+        <v>1.08</v>
       </c>
       <c r="X33" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
-        <v>20</v>
+        <v>8.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>25</v>
+        <v>7.4</v>
       </c>
       <c r="AA33" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AI33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>40</v>
+        <v>750</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="AO33" t="n">
-        <v>20</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="34">
@@ -4973,17 +4973,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5014,25 +5014,25 @@
         <v>1.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="P34" t="n">
         <v>1.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V34" t="n">
         <v>1.01</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,90 +5108,90 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="G35" t="n">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="H35" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K35" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S35" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T35" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="X35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
         <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5200,19 +5200,19 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
@@ -5221,10 +5221,10 @@
         <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,123 +5243,123 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.22</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="H36" t="n">
-        <v>19</v>
+        <v>4.3</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="O36" t="n">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="P36" t="n">
-        <v>2.6</v>
+        <v>1.56</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.41</v>
+        <v>2.46</v>
       </c>
       <c r="R36" t="n">
-        <v>1.73</v>
+        <v>1.19</v>
       </c>
       <c r="S36" t="n">
-        <v>1.89</v>
+        <v>5.1</v>
       </c>
       <c r="T36" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="U36" t="n">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="V36" t="n">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>5.1</v>
+        <v>1.86</v>
       </c>
       <c r="X36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN36" t="n">
         <v>34</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>960</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.05</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5378,125 +5378,665 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Minnesota Utd</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="G37" t="n">
-        <v>2.92</v>
+        <v>2.54</v>
       </c>
       <c r="H37" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="I37" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="R37" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="T37" t="n">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="U37" t="n">
-        <v>2.28</v>
+        <v>2.66</v>
       </c>
       <c r="V37" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="W37" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="X37" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AA37" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF37" t="n">
         <v>21</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH37" t="n">
         <v>17</v>
       </c>
       <c r="AI37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11</v>
+      </c>
+      <c r="I40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH40" t="n">
         <v>38</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AI40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>960</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Minnesota Utd</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>44</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AK41" t="n">
         <v>32</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AL41" t="n">
         <v>40</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AM41" t="n">
         <v>80</v>
       </c>
-      <c r="AN37" t="n">
+      <c r="AN41" t="n">
         <v>24</v>
       </c>
-      <c r="AO37" t="n">
+      <c r="AO41" t="n">
         <v>27</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>2.98</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.19</v>
@@ -712,7 +712,7 @@
         <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
@@ -721,49 +721,49 @@
         <v>1.67</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
         <v>50</v>
@@ -772,7 +772,7 @@
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.6</v>
@@ -826,37 +826,37 @@
         <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P3" t="n">
         <v>1.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
         <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -868,13 +868,13 @@
         <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>140</v>
@@ -886,7 +886,7 @@
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>190</v>
@@ -895,7 +895,7 @@
         <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>110</v>
@@ -904,7 +904,7 @@
         <v>420</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="I4" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="J4" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -964,19 +964,19 @@
         <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
         <v>1.11</v>
       </c>
       <c r="R4" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T4" t="n">
         <v>1.36</v>
@@ -985,7 +985,7 @@
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1063,67 +1063,67 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.56</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>1.61</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>1.84</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>1.71</v>
       </c>
       <c r="T5" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>2.78</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.24</v>
       </c>
-      <c r="G7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB7" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>980</v>
       </c>
-      <c r="AI7" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>2.42</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>2.74</v>
+        <v>1.69</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>2.78</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.52</v>
+        <v>1.84</v>
       </c>
       <c r="X8" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN8" t="n">
         <v>26</v>
       </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>15</v>
-      </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.66</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.71</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.46</v>
       </c>
-      <c r="S9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.77</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.78</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC9" t="n">
         <v>11</v>
       </c>
-      <c r="Z9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AD9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>24</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AN9" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>5.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,100 +1873,100 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1975,25 +1975,25 @@
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,76 +2008,76 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="G12" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.36</v>
       </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.48</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.15</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2086,10 +2086,10 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.34</v>
+        <v>1.55</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>2.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.92</v>
       </c>
       <c r="G14" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
         <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,73 +2413,73 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Levadia Tallinn II</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>980</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>500</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.13</v>
+        <v>1.89</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>1.13</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,13 +2488,13 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>1.46</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>870</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>2.94</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.06</v>
+        <v>1.34</v>
       </c>
       <c r="O16" t="n">
-        <v>1.77</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
         <v>1.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1.13</v>
       </c>
       <c r="R16" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>1.56</v>
+        <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.37</v>
+        <v>3.15</v>
       </c>
       <c r="X16" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>2.98</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N17" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="P17" t="n">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.89</v>
+        <v>2.46</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>2.44</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>1.29</v>
+        <v>2.68</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.02</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.02</v>
+        <v>1.69</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,67 +2953,67 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JK Welco Elekter</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Elva</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G19" t="n">
-        <v>980</v>
+        <v>2.96</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="K19" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.14</v>
+        <v>2.58</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.14</v>
+        <v>3.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V19" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>2.26</v>
+        <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.22</v>
+        <v>1.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.78</v>
+        <v>1.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.98</v>
+        <v>1.14</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wieczysta Krakow</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>3.65</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="I21" t="n">
-        <v>6.4</v>
+        <v>2.26</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.56</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.79</v>
       </c>
       <c r="W21" t="n">
-        <v>2.22</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,118 +3358,118 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Wieczysta Krakow</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="G22" t="n">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>16.5</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>21</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="R22" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="S22" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>1.61</v>
+        <v>2.42</v>
       </c>
       <c r="V22" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>4.7</v>
+        <v>2.24</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z22" t="n">
         <v>55</v>
       </c>
-      <c r="Z22" t="n">
-        <v>230</v>
-      </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM22" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,106 +3493,106 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
       <c r="H23" t="n">
-        <v>1.99</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="X23" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
         <v>980</v>
       </c>
       <c r="AJ23" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
         <v>980</v>
@@ -3601,19 +3601,19 @@
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.36</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.85</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>1.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="T24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.65</v>
       </c>
-      <c r="U24" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.41</v>
+        <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>4.4</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD24" t="n">
         <v>70</v>
       </c>
-      <c r="AB24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>980</v>
-      </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>380</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>270</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.46</v>
+        <v>4.4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>1.94</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>1.98</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="W25" t="n">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="X25" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="n">
         <v>980</v>
       </c>
-      <c r="AF25" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AK25" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.44</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>1.52</v>
+        <v>2.44</v>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>9.4</v>
+        <v>3.45</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.41</v>
       </c>
-      <c r="S26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W26" t="n">
-        <v>2.92</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA26" t="n">
         <v>75</v>
       </c>
-      <c r="AA26" t="n">
-        <v>310</v>
-      </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO26" t="n">
         <v>42</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.4</v>
+        <v>1.43</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.99</v>
+        <v>7.4</v>
       </c>
       <c r="I27" t="n">
-        <v>2.06</v>
+        <v>9.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="M27" t="n">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W27" t="n">
         <v>2.96</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S27" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X27" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.5</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG27" t="n">
         <v>12</v>
       </c>
-      <c r="AE27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>26</v>
-      </c>
       <c r="AH27" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM27" t="n">
         <v>180</v>
       </c>
-      <c r="AK27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL27" t="n">
+      <c r="AN27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO27" t="n">
         <v>190</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>260</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Newcastle U21</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.05</v>
+        <v>5.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H28" t="n">
-        <v>1.06</v>
+        <v>1.99</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="O28" t="n">
-        <v>1.09</v>
+        <v>1.61</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="S28" t="n">
-        <v>1.05</v>
+        <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,72 +4298,72 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Newcastle U21</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="G29" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>1.06</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="U29" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="V29" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4378,10 +4378,10 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -4447,34 +4447,34 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.43</v>
+        <v>2.66</v>
       </c>
       <c r="G30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.25</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.7</v>
-      </c>
       <c r="J30" t="n">
-        <v>1.09</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.47</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.56</v>
+        <v>2.44</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="P30" t="n">
         <v>1.56</v>
@@ -4486,25 +4486,25 @@
         <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="V30" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W30" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4582,43 +4582,43 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L31" t="n">
         <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q31" t="n">
         <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
         <v>4</v>
@@ -4627,22 +4627,22 @@
         <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V31" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -4663,7 +4663,7 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>2.78</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="P32" t="n">
-        <v>2.16</v>
+        <v>1.61</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="S32" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>2.38</v>
+        <v>1.71</v>
       </c>
       <c r="V32" t="n">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="G33" t="n">
-        <v>13.5</v>
+        <v>3.45</v>
       </c>
       <c r="H33" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="I33" t="n">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
       <c r="J33" t="n">
-        <v>5.9</v>
+        <v>3.65</v>
       </c>
       <c r="K33" t="n">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.28</v>
       </c>
       <c r="P33" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
         <v>3.15</v>
       </c>
       <c r="T33" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="U33" t="n">
-        <v>1.69</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
-        <v>3.8</v>
+        <v>1.76</v>
       </c>
       <c r="W33" t="n">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI33" t="n">
         <v>34</v>
       </c>
-      <c r="AC33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH33" t="n">
+      <c r="AJ33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="n">
         <v>42</v>
       </c>
-      <c r="AI33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>750</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>290</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>220</v>
-      </c>
       <c r="AM33" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="AO33" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,36 +4973,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,22 +5011,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.46</v>
+        <v>2.14</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S34" t="n">
-        <v>1.46</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
         <v>1.03</v>
@@ -5035,10 +5035,10 @@
         <v>1.03</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.59</v>
+        <v>11.5</v>
       </c>
       <c r="G35" t="n">
-        <v>1.67</v>
+        <v>14</v>
       </c>
       <c r="H35" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="I35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
         <v>6.6</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R35" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="T35" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="U35" t="n">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>4</v>
       </c>
       <c r="W35" t="n">
-        <v>2.48</v>
+        <v>1.07</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>420</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,108 +5243,108 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>1.09</v>
       </c>
       <c r="G36" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="H36" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="O36" t="n">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
         <v>1.19</v>
       </c>
       <c r="S36" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="U36" t="n">
         <v>1.76</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="X36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
         <v>1000</v>
@@ -5356,10 +5356,10 @@
         <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.44</v>
+        <v>1.58</v>
       </c>
       <c r="G37" t="n">
-        <v>2.54</v>
+        <v>1.66</v>
       </c>
       <c r="H37" t="n">
-        <v>2.86</v>
+        <v>5.9</v>
       </c>
       <c r="I37" t="n">
-        <v>2.96</v>
+        <v>6.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>2.52</v>
+        <v>2.02</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="S37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W37" t="n">
         <v>2.46</v>
       </c>
-      <c r="T37" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.64</v>
-      </c>
       <c r="X37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AB37" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AO37" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,108 +5513,108 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
         <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N38" t="n">
-        <v>1.25</v>
+        <v>2.66</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="P38" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.4</v>
+        <v>2.46</v>
       </c>
       <c r="R38" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S38" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="U38" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V38" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W38" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
         <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
@@ -5626,10 +5626,10 @@
         <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,72 +5648,72 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G39" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="H39" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="I39" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R39" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="S39" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="T39" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5722,13 +5722,13 @@
         <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
         <v>1000</v>
@@ -5737,10 +5737,10 @@
         <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
         <v>1000</v>
@@ -5749,7 +5749,7 @@
         <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
         <v>1000</v>
@@ -5761,7 +5761,7 @@
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,123 +5783,123 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.26</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>1.32</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="I40" t="n">
-        <v>16.5</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>5.7</v>
+        <v>2.84</v>
       </c>
       <c r="K40" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>5</v>
+        <v>2.54</v>
       </c>
       <c r="O40" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="R40" t="n">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U40" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.06</v>
+        <v>1.41</v>
       </c>
       <c r="W40" t="n">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="X40" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5918,126 +5918,666 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Minnesota Utd</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
-        <v>2.92</v>
+        <v>2.54</v>
       </c>
       <c r="H41" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="I41" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L41" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="T41" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="U41" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="V41" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="W41" t="n">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="X41" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF41" t="n">
         <v>21</v>
       </c>
       <c r="AG41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Athletico-PR</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I43" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="J43" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>23</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="X44" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Minnesota Utd</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X45" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH45" t="n">
         <v>17</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AI45" t="n">
         <v>38</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AJ45" t="n">
         <v>44</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AK45" t="n">
         <v>32</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AL45" t="n">
         <v>40</v>
       </c>
-      <c r="AM41" t="n">
+      <c r="AM45" t="n">
         <v>80</v>
       </c>
-      <c r="AN41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO41" t="n">
+      <c r="AN45" t="n">
         <v>27</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -670,16 +670,16 @@
         <v>2.44</v>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.19</v>
@@ -706,19 +706,19 @@
         <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V2" t="n">
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
         <v>24</v>
@@ -739,7 +739,7 @@
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>27</v>
@@ -748,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
         <v>14</v>
@@ -772,7 +772,7 @@
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -811,10 +811,10 @@
         <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
         <v>3.1</v>
@@ -826,13 +826,13 @@
         <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O3" t="n">
         <v>1.75</v>
       </c>
       <c r="P3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
         <v>2.92</v>
@@ -844,61 +844,61 @@
         <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>1.81</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA3" t="n">
         <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="n">
         <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>540</v>
       </c>
       <c r="AM3" t="n">
         <v>420</v>
@@ -943,16 +943,16 @@
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -964,22 +964,22 @@
         <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
         <v>1.11</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="T4" t="n">
-        <v>1.36</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
         <v>1.03</v>
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,94 +1072,94 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.61</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>11.5</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.84</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.18</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.13</v>
-      </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G6" t="n">
         <v>2.56</v>
       </c>
       <c r="H6" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1240,7 +1240,7 @@
         <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
@@ -1249,19 +1249,19 @@
         <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="I7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.43</v>
@@ -1372,10 +1372,10 @@
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
@@ -1384,19 +1384,19 @@
         <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
         <v>9.4</v>
@@ -1420,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
@@ -1435,13 +1435,13 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
@@ -1480,10 +1480,10 @@
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
         <v>4.5</v>
@@ -1492,10 +1492,10 @@
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1519,19 +1519,19 @@
         <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
         <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
@@ -1540,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>18.5</v>
@@ -1555,13 +1555,13 @@
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>85</v>
@@ -1570,19 +1570,19 @@
         <v>28</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>50</v>
       </c>
       <c r="AM8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO8" t="n">
         <v>160</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1615,22 +1615,22 @@
         <v>2.66</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
         <v>3.95</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1642,7 +1642,7 @@
         <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>
@@ -1654,19 +1654,19 @@
         <v>2.22</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U9" t="n">
         <v>2.78</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X9" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="n">
         <v>18.5</v>
@@ -1675,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
         <v>19.5</v>
@@ -1690,7 +1690,7 @@
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1702,22 +1702,22 @@
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
         <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="I10" t="n">
         <v>1.72</v>
@@ -1762,82 +1762,82 @@
         <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
         <v>11.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB10" t="n">
         <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
         <v>75</v>
@@ -1849,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1882,37 +1882,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -1921,73 +1921,73 @@
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
         <v>1.89</v>
       </c>
       <c r="U11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
         <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2065,13 +2065,13 @@
         <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
         <v>980</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="n">
         <v>980</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="G13" t="n">
         <v>7.6</v>
@@ -2161,13 +2161,13 @@
         <v>1.55</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2176,7 +2176,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2185,7 +2185,7 @@
         <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
         <v>1.36</v>
@@ -2194,40 +2194,40 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
         <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="W13" t="n">
         <v>1.16</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
         <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD13" t="n">
         <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G14" t="n">
         <v>3.4</v>
@@ -2296,10 +2296,10 @@
         <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2317,7 +2317,7 @@
         <v>1.32</v>
       </c>
       <c r="P14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
         <v>1.92</v>
@@ -2329,13 +2329,13 @@
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>1.41</v>
@@ -2347,16 +2347,16 @@
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>12.5</v>
@@ -2368,7 +2368,7 @@
         <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
         <v>18</v>
@@ -2377,7 +2377,7 @@
         <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
         <v>44</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
         <v>2.64</v>
@@ -2431,13 +2431,13 @@
         <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2446,37 +2446,37 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T15" t="n">
         <v>1.72</v>
       </c>
       <c r="U15" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>9.800000000000001</v>
@@ -2500,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
         <v>1000</v>
@@ -2569,7 +2569,7 @@
         <v>870</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2581,13 +2581,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
         <v>1.13</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="G17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I17" t="n">
         <v>3.65</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.98</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="K17" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.06</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
         <v>1.12</v>
       </c>
       <c r="S17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.05</v>
       </c>
-      <c r="T17" t="n">
-        <v>2.46</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="X17" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AH17" t="n">
         <v>980</v>
       </c>
       <c r="AI17" t="n">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="AJ17" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AK17" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="AL17" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,61 +2827,61 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.15</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
         <v>2.18</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
         <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
         <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2902,19 +2902,19 @@
         <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
         <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>40</v>
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G19" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
         <v>2.56</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>1.49</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="P19" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
         <v>1.56</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G20" t="n">
         <v>980</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
         <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>1.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
         <v>1.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="T20" t="n">
         <v>1.03</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I21" t="n">
         <v>2.26</v>
@@ -3247,7 +3247,7 @@
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3262,28 +3262,28 @@
         <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R21" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S21" t="n">
         <v>2.98</v>
       </c>
       <c r="T21" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
         <v>2.26</v>
       </c>
       <c r="V21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
         <v>17.5</v>
@@ -3322,7 +3322,7 @@
         <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
@@ -3331,7 +3331,7 @@
         <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>42</v>
@@ -3370,25 +3370,25 @@
         <v>1.66</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
         <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
         <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>5.7</v>
@@ -3403,13 +3403,13 @@
         <v>1.51</v>
       </c>
       <c r="R22" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
         <v>2.42</v>
@@ -3418,7 +3418,7 @@
         <v>1.22</v>
       </c>
       <c r="W22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X22" t="n">
         <v>30</v>
@@ -3439,34 +3439,34 @@
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="n">
         <v>15.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL22" t="n">
         <v>27</v>
       </c>
       <c r="AM22" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
         <v>7.2</v>
@@ -3520,7 +3520,7 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3544,28 +3544,28 @@
         <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
         <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
         <v>1.63</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="n">
         <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AB23" t="n">
         <v>980</v>
@@ -3586,7 +3586,7 @@
         <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
         <v>980</v>
@@ -3601,7 +3601,7 @@
         <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
         <v>980</v>
@@ -3640,7 +3640,7 @@
         <v>1.23</v>
       </c>
       <c r="G24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H24" t="n">
         <v>15</v>
@@ -3655,7 +3655,7 @@
         <v>7.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3679,7 +3679,7 @@
         <v>2.52</v>
       </c>
       <c r="T24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U24" t="n">
         <v>1.65</v>
@@ -3691,10 +3691,10 @@
         <v>4.4</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="Z24" t="n">
         <v>200</v>
@@ -3703,13 +3703,13 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>16.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AE24" t="n">
         <v>380</v>
@@ -3718,7 +3718,7 @@
         <v>7.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>980</v>
@@ -3730,7 +3730,7 @@
         <v>9.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="I25" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -3796,49 +3796,49 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S25" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
         <v>9</v>
@@ -3847,37 +3847,37 @@
         <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
         <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
         <v>38</v>
       </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>44</v>
-      </c>
       <c r="AM26" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G27" t="n">
         <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I27" t="n">
         <v>9.4</v>
@@ -4057,10 +4057,10 @@
         <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4075,10 +4075,10 @@
         <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S27" t="n">
         <v>2.62</v>
@@ -4096,52 +4096,52 @@
         <v>2.96</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="n">
         <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="n">
         <v>310</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>460</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
         <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>42</v>
       </c>
       <c r="AM27" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="AN27" t="n">
         <v>8.199999999999999</v>
@@ -4180,25 +4180,25 @@
         <v>5.6</v>
       </c>
       <c r="G28" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>1.99</v>
       </c>
       <c r="I28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
         <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="M28" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N28" t="n">
         <v>2.48</v>
@@ -4210,7 +4210,7 @@
         <v>1.46</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="R28" t="n">
         <v>1.16</v>
@@ -4219,16 +4219,16 @@
         <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U28" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="V28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X28" t="n">
         <v>7.4</v>
@@ -4237,7 +4237,7 @@
         <v>6.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AA28" t="n">
         <v>24</v>
@@ -4255,16 +4255,16 @@
         <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH28" t="n">
         <v>30</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ28" t="n">
         <v>190</v>
@@ -4273,16 +4273,16 @@
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM28" t="n">
         <v>350</v>
       </c>
       <c r="AN28" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="H29" t="n">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="I29" t="n">
         <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4339,7 +4339,7 @@
         <v>1.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P29" t="n">
         <v>1.24</v>
@@ -4447,52 +4447,52 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G30" t="n">
         <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
         <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
         <v>1.47</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
         <v>2.44</v>
       </c>
       <c r="O30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="U30" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="V30" t="n">
         <v>1.44</v>
@@ -4501,10 +4501,10 @@
         <v>1.47</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.6</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="H31" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
         <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
         <v>1.79</v>
@@ -4630,22 +4630,22 @@
         <v>1.77</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="W31" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
@@ -4663,7 +4663,7 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4717,64 +4717,64 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="G32" t="n">
         <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
         <v>1.22</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T32" t="n">
         <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="V32" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W32" t="n">
         <v>1.66</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,10 +4783,10 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4807,7 +4807,7 @@
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="I33" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4879,70 +4879,70 @@
         <v>4.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="W33" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
         <v>15.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF33" t="n">
         <v>23</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>25</v>
       </c>
       <c r="AG33" t="n">
         <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
         <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
         <v>36</v>
@@ -4987,55 +4987,55 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G34" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="I34" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J34" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
         <v>1.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.35</v>
+        <v>1.07</v>
       </c>
       <c r="P34" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R34" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U34" t="n">
         <v>1.03</v>
       </c>
       <c r="V34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W34" t="n">
         <v>1.14</v>
@@ -5056,7 +5056,7 @@
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="G35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I35" t="n">
         <v>1.3</v>
       </c>
-      <c r="I35" t="n">
-        <v>1.33</v>
-      </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K35" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5146,49 +5146,49 @@
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R35" t="n">
         <v>1.44</v>
       </c>
       <c r="S35" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U35" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="W35" t="n">
         <v>1.07</v>
       </c>
       <c r="X35" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z35" t="n">
         <v>7.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC35" t="n">
         <v>13.5</v>
@@ -5203,7 +5203,7 @@
         <v>140</v>
       </c>
       <c r="AG35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="n">
         <v>40</v>
@@ -5212,22 +5212,22 @@
         <v>48</v>
       </c>
       <c r="AJ35" t="n">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="AK35" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="n">
         <v>220</v>
       </c>
       <c r="AM35" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN35" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AO35" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.09</v>
+        <v>1.94</v>
       </c>
       <c r="G36" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H36" t="n">
         <v>3.35</v>
       </c>
       <c r="I36" t="n">
-        <v>980</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
-        <v>1.09</v>
+        <v>2.84</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,16 +5281,16 @@
         <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O36" t="n">
         <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
         <v>1.19</v>
@@ -5305,10 +5305,10 @@
         <v>1.76</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5326,7 +5326,7 @@
         <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -5338,7 +5338,7 @@
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -5356,7 +5356,7 @@
         <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G37" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5419,37 +5419,37 @@
         <v>4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V37" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W37" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -5458,43 +5458,43 @@
         <v>200</v>
       </c>
       <c r="AB37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG37" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>12</v>
-      </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G38" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H38" t="n">
         <v>4.3</v>
@@ -5569,16 +5569,16 @@
         <v>5.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="U38" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V38" t="n">
         <v>1.27</v>
       </c>
       <c r="W38" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X38" t="n">
         <v>10.5</v>
@@ -5587,13 +5587,13 @@
         <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA38" t="n">
         <v>150</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC38" t="n">
         <v>7.8</v>
@@ -5602,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF38" t="n">
         <v>12</v>
@@ -5611,16 +5611,16 @@
         <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>230</v>
       </c>
       <c r="AN38" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5662,40 +5662,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="G39" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H39" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
         <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N39" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P39" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R39" t="n">
         <v>1.21</v>
@@ -5713,7 +5713,7 @@
         <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="G40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.2</v>
       </c>
-      <c r="H40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R40" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S40" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5845,10 +5845,10 @@
         <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="W40" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5866,7 +5866,7 @@
         <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G41" t="n">
         <v>2.54</v>
       </c>
       <c r="H41" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I41" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L41" t="n">
         <v>1.29</v>
@@ -5959,28 +5959,28 @@
         <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R41" t="n">
         <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T41" t="n">
         <v>1.56</v>
       </c>
       <c r="U41" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="V41" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W41" t="n">
         <v>1.64</v>
@@ -5992,7 +5992,7 @@
         <v>17.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA41" t="n">
         <v>46</v>
@@ -6004,22 +6004,22 @@
         <v>9.4</v>
       </c>
       <c r="AD41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI41" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ41" t="n">
         <v>36</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G42" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="I42" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,22 +6091,22 @@
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="R42" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
         <v>1.03</v>
@@ -6115,10 +6115,10 @@
         <v>1.03</v>
       </c>
       <c r="V42" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6136,7 +6136,7 @@
         <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6166,7 +6166,7 @@
         <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6205,13 +6205,13 @@
         <v>1.36</v>
       </c>
       <c r="G43" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H43" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
         <v>4.7</v>
@@ -6232,16 +6232,16 @@
         <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R43" t="n">
         <v>1.32</v>
       </c>
       <c r="S43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T43" t="n">
         <v>2.14</v>
@@ -6253,7 +6253,7 @@
         <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6280,7 +6280,7 @@
         <v>330</v>
       </c>
       <c r="AF43" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6289,7 +6289,7 @@
         <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
@@ -6337,31 +6337,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G44" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H44" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="I44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N44" t="n">
         <v>7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N44" t="n">
-        <v>6.6</v>
       </c>
       <c r="O44" t="n">
         <v>1.12</v>
@@ -6370,79 +6370,79 @@
         <v>2.84</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="R44" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S44" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W44" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="X44" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z44" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AA44" t="n">
-        <v>960</v>
+        <v>690</v>
       </c>
       <c r="AB44" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE44" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AF44" t="n">
         <v>11</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM44" t="n">
         <v>220</v>
       </c>
       <c r="AN44" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="AO44" t="n">
-        <v>470</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G45" t="n">
         <v>2.94</v>
@@ -6481,13 +6481,13 @@
         <v>2.62</v>
       </c>
       <c r="I45" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J45" t="n">
         <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L45" t="n">
         <v>1.38</v>
@@ -6496,7 +6496,7 @@
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O45" t="n">
         <v>1.31</v>
@@ -6505,22 +6505,22 @@
         <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
         <v>1.4</v>
       </c>
       <c r="S45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V45" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
         <v>1.52</v>
@@ -6529,7 +6529,7 @@
         <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z45" t="n">
         <v>18</v>
@@ -6541,7 +6541,7 @@
         <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD45" t="n">
         <v>12.5</v>
@@ -6550,7 +6550,7 @@
         <v>29</v>
       </c>
       <c r="AF45" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG45" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -667,73 +667,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
         <v>1.68</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
         <v>18.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -742,25 +742,25 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
         <v>20</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -772,7 +772,7 @@
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -802,61 +802,61 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="N3" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="O3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -868,10 +868,10 @@
         <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
         <v>27</v>
@@ -880,7 +880,7 @@
         <v>140</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -892,10 +892,10 @@
         <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
         <v>540</v>
@@ -904,7 +904,7 @@
         <v>420</v>
       </c>
       <c r="AN3" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="I4" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -964,28 +964,28 @@
         <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>2.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="W4" t="n">
         <v>1.03</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5">
@@ -1072,91 +1072,91 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>85</v>
@@ -1171,13 +1171,13 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
         <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1240,13 +1240,13 @@
         <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.82</v>
@@ -1255,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
         <v>1.64</v>
@@ -1270,16 +1270,16 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1291,13 +1291,13 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1342,55 +1342,55 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G7" t="n">
         <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="W7" t="n">
         <v>1.32</v>
@@ -1429,7 +1429,7 @@
         <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1444,10 +1444,10 @@
         <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1480,70 +1480,70 @@
         <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
         <v>2.22</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
         <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
         <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1558,7 +1558,7 @@
         <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
@@ -1567,10 +1567,10 @@
         <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
         <v>50</v>
@@ -1579,10 +1579,10 @@
         <v>150</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J9" t="n">
         <v>3.95</v>
@@ -1630,40 +1630,40 @@
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="U9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="W9" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
         <v>80</v>
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
         <v>46</v>
@@ -1711,13 +1711,13 @@
         <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AN9" t="n">
         <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,10 +1753,10 @@
         <v>5.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1765,28 +1765,28 @@
         <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T10" t="n">
         <v>1.75</v>
@@ -1795,16 +1795,16 @@
         <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
         <v>11.5</v>
@@ -1816,7 +1816,7 @@
         <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10</v>
@@ -1846,13 +1846,13 @@
         <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
         <v>150</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11">
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y11" t="n">
         <v>16</v>
@@ -1948,7 +1948,7 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>8</v>
@@ -1966,7 +1966,7 @@
         <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>85</v>
@@ -1978,13 +1978,13 @@
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
         <v>90</v>
@@ -2023,19 +2023,19 @@
         <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2047,34 +2047,34 @@
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,13 +2086,13 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF12" t="n">
         <v>1000</v>
@@ -2104,10 +2104,10 @@
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,82 +2152,82 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.32</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.74</v>
-      </c>
       <c r="V13" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="X13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC13" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>2.04</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.8</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
         <v>11</v>
       </c>
-      <c r="Z14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2422,55 +2422,55 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>3.85</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
         <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.16</v>
+        <v>1.97</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
         <v>1.61</v>
@@ -2482,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
         <v>1.46</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>870</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2587,25 +2587,25 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
         <v>1.13</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
         <v>3.15</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,91 +2692,91 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
         <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="K17" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="P17" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.83</v>
+        <v>3.7</v>
       </c>
       <c r="R17" t="n">
         <v>1.12</v>
       </c>
       <c r="S17" t="n">
-        <v>1.83</v>
+        <v>8</v>
       </c>
       <c r="T17" t="n">
         <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.41</v>
       </c>
       <c r="X17" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
         <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
         <v>200</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AI17" t="n">
         <v>270</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
         <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
         <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X18" t="n">
         <v>11.5</v>
@@ -2887,13 +2887,13 @@
         <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2908,7 +2908,7 @@
         <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
@@ -2929,10 +2929,10 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="G19" t="n">
         <v>2.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>2.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="O19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
         <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
         <v>17</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>1.95</v>
       </c>
       <c r="I20" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
@@ -3115,7 +3115,7 @@
         <v>5.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3127,13 +3127,13 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="Q20" t="n">
         <v>1.15</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
         <v>1.15</v>
@@ -3145,10 +3145,10 @@
         <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,61 +3232,61 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H21" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="I21" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J21" t="n">
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.8</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.81</v>
-      </c>
       <c r="W21" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>11.5</v>
@@ -3295,10 +3295,10 @@
         <v>16</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
@@ -3307,10 +3307,10 @@
         <v>11.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AG21" t="n">
         <v>15.5</v>
@@ -3319,25 +3319,25 @@
         <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
         <v>160</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="22">
@@ -3373,46 +3373,46 @@
         <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
         <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V22" t="n">
         <v>1.22</v>
@@ -3424,7 +3424,7 @@
         <v>30</v>
       </c>
       <c r="Y22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z22" t="n">
         <v>55</v>
@@ -3445,7 +3445,7 @@
         <v>220</v>
       </c>
       <c r="AF22" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3457,19 +3457,19 @@
         <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK22" t="n">
         <v>16.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G23" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3526,25 +3526,25 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
         <v>2.12</v>
@@ -3553,7 +3553,7 @@
         <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
         <v>90</v>
@@ -3562,52 +3562,52 @@
         <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
         <v>300</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
         <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
         <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="G24" t="n">
         <v>1.28</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
         <v>18.5</v>
@@ -3652,10 +3652,10 @@
         <v>6.2</v>
       </c>
       <c r="K24" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3664,19 +3664,19 @@
         <v>4.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R24" t="n">
         <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T24" t="n">
         <v>2.24</v>
@@ -3688,7 +3688,7 @@
         <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X24" t="n">
         <v>44</v>
@@ -3703,16 +3703,16 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD24" t="n">
         <v>210</v>
       </c>
       <c r="AE24" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF24" t="n">
         <v>7.8</v>
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="n">
         <v>270</v>
@@ -3733,10 +3733,10 @@
         <v>15.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AM24" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="n">
         <v>5.4</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="I25" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -3790,7 +3790,7 @@
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3802,16 +3802,16 @@
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R25" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
         <v>1.71</v>
@@ -3820,7 +3820,7 @@
         <v>2.26</v>
       </c>
       <c r="V25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W25" t="n">
         <v>1.28</v>
@@ -3865,16 +3865,16 @@
         <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
         <v>130</v>
       </c>
       <c r="AM25" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AO25" t="n">
         <v>11</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G26" t="n">
         <v>2.26</v>
@@ -3916,7 +3916,7 @@
         <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
         <v>3.55</v>
@@ -3928,31 +3928,31 @@
         <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S26" t="n">
         <v>3.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
         <v>1.37</v>
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
         <v>26</v>
@@ -3973,19 +3973,19 @@
         <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>44</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
         <v>11.5</v>
@@ -4006,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN26" t="n">
         <v>17.5</v>
@@ -4045,22 +4045,22 @@
         <v>1.45</v>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H27" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>9.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4075,13 +4075,13 @@
         <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
         <v>1.96</v>
@@ -4093,16 +4093,16 @@
         <v>1.12</v>
       </c>
       <c r="W27" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
         <v>44</v>
       </c>
       <c r="Y27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z27" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AA27" t="n">
         <v>310</v>
@@ -4177,40 +4177,40 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="J28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.05</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.63</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.61</v>
       </c>
       <c r="P28" t="n">
         <v>1.46</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
         <v>1.16</v>
@@ -4219,13 +4219,13 @@
         <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U28" t="n">
         <v>1.65</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W28" t="n">
         <v>1.2</v>
@@ -4237,7 +4237,7 @@
         <v>6.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>24</v>
@@ -4255,22 +4255,22 @@
         <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AG28" t="n">
         <v>25</v>
       </c>
       <c r="AH28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AJ28" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL28" t="n">
         <v>160</v>
@@ -4282,7 +4282,7 @@
         <v>230</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>1.65</v>
       </c>
       <c r="H29" t="n">
-        <v>1.39</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J29" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
@@ -4339,28 +4339,28 @@
         <v>1.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>3.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="S29" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="T29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U29" t="n">
-        <v>1.03</v>
+        <v>2.58</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
         <v>1.01</v>
@@ -4408,13 +4408,13 @@
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4447,46 +4447,46 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.25</v>
       </c>
-      <c r="J30" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
       </c>
       <c r="P30" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="T30" t="n">
         <v>2.02</v>
@@ -4495,10 +4495,10 @@
         <v>1.79</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W30" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="X30" t="n">
         <v>11.5</v>
@@ -4513,13 +4513,13 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4537,7 +4537,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -4582,82 +4582,82 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="G31" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="H31" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="I31" t="n">
-        <v>2.68</v>
+        <v>1.99</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -4720,55 +4720,55 @@
         <v>2.26</v>
       </c>
       <c r="G32" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
         <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R32" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
         <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W32" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
@@ -4786,7 +4786,7 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4855,13 +4855,13 @@
         <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I33" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J33" t="n">
         <v>3.65</v>
@@ -4870,13 +4870,13 @@
         <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.29</v>
@@ -4894,16 +4894,16 @@
         <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U33" t="n">
         <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W33" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
         <v>15.5</v>
@@ -4921,7 +4921,7 @@
         <v>14</v>
       </c>
       <c r="AC33" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>10.5</v>
@@ -4942,22 +4942,22 @@
         <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="n">
         <v>36</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="n">
         <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="34">
@@ -4987,46 +4987,46 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.6</v>
       </c>
-      <c r="G34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="O34" t="n">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="R34" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="T34" t="n">
         <v>1.04</v>
@@ -5035,10 +5035,10 @@
         <v>1.03</v>
       </c>
       <c r="V34" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="W34" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5128,49 +5128,49 @@
         <v>14.5</v>
       </c>
       <c r="H35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="J35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K35" t="n">
         <v>6.4</v>
       </c>
-      <c r="K35" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="V35" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="W35" t="n">
         <v>1.07</v>
@@ -5179,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z35" t="n">
         <v>7.4</v>
@@ -5188,16 +5188,16 @@
         <v>9.4</v>
       </c>
       <c r="AB35" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AC35" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF35" t="n">
         <v>140</v>
@@ -5206,28 +5206,28 @@
         <v>50</v>
       </c>
       <c r="AH35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI35" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="AK35" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AM35" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="AO35" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="36">
@@ -5257,61 +5257,61 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="G36" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="H36" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="O36" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R36" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="U36" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W36" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y36" t="n">
         <v>1000</v>
@@ -5323,22 +5323,22 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF36" t="n">
         <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
         <v>1000</v>
@@ -5347,16 +5347,16 @@
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK36" t="n">
         <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM36" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G37" t="n">
         <v>1.7</v>
@@ -5404,40 +5404,40 @@
         <v>6.2</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R37" t="n">
         <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V37" t="n">
         <v>1.19</v>
@@ -5446,10 +5446,10 @@
         <v>2.42</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -5458,34 +5458,34 @@
         <v>200</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG37" t="n">
         <v>10</v>
       </c>
-      <c r="AG37" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
         <v>95</v>
@@ -5494,7 +5494,7 @@
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5530,28 +5530,28 @@
         <v>2.02</v>
       </c>
       <c r="G38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M38" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O38" t="n">
         <v>1.52</v>
@@ -5560,28 +5560,28 @@
         <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="R38" t="n">
         <v>1.19</v>
       </c>
       <c r="S38" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="T38" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U38" t="n">
         <v>1.75</v>
       </c>
       <c r="V38" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
         <v>12.5</v>
@@ -5602,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
         <v>12</v>
@@ -5617,10 +5617,10 @@
         <v>540</v>
       </c>
       <c r="AJ38" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AK38" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5662,61 +5662,61 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="G39" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K39" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="O39" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="S39" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="T39" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W39" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="n">
         <v>1000</v>
@@ -5728,10 +5728,10 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
         <v>1000</v>
@@ -5740,10 +5740,10 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5752,7 +5752,7 @@
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G40" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
         <v>3.2</v>
@@ -5815,46 +5815,46 @@
         <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>2.48</v>
+        <v>3.45</v>
       </c>
       <c r="O40" t="n">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
       <c r="P40" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="R40" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S40" t="n">
-        <v>2.5</v>
+        <v>3.55</v>
       </c>
       <c r="T40" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="V40" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,10 +5863,10 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AC40" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5881,16 +5881,16 @@
         <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -5932,40 +5932,40 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G41" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H41" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I41" t="n">
         <v>2.96</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
         <v>3.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O41" t="n">
         <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R41" t="n">
         <v>1.6</v>
@@ -5974,61 +5974,61 @@
         <v>2.56</v>
       </c>
       <c r="T41" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U41" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V41" t="n">
         <v>1.51</v>
       </c>
       <c r="W41" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X41" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z41" t="n">
         <v>23</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>24</v>
       </c>
       <c r="AA41" t="n">
         <v>46</v>
       </c>
       <c r="AB41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE41" t="n">
         <v>30</v>
       </c>
       <c r="AF41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH41" t="n">
         <v>14.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
         <v>36</v>
       </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM41" t="n">
         <v>60</v>
@@ -6037,7 +6037,7 @@
         <v>14</v>
       </c>
       <c r="AO41" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,46 +6067,46 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="G42" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="I42" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
       <c r="O42" t="n">
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="R42" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
         <v>1.03</v>
@@ -6115,10 +6115,10 @@
         <v>1.03</v>
       </c>
       <c r="V42" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="W42" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G43" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H43" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I43" t="n">
         <v>13</v>
@@ -6217,7 +6217,7 @@
         <v>4.7</v>
       </c>
       <c r="K43" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.44</v>
@@ -6226,34 +6226,34 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O43" t="n">
         <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R43" t="n">
         <v>1.32</v>
       </c>
       <c r="S43" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
         <v>2.14</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6277,7 +6277,7 @@
         <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="n">
         <v>17</v>
@@ -6304,7 +6304,7 @@
         <v>330</v>
       </c>
       <c r="AN43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G44" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H44" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J44" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K44" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="L44" t="n">
         <v>1.19</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P44" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R44" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="S44" t="n">
         <v>1.79</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="U44" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V44" t="n">
         <v>1.06</v>
       </c>
       <c r="W44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X44" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Y44" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z44" t="n">
-        <v>190</v>
+        <v>960</v>
       </c>
       <c r="AA44" t="n">
-        <v>690</v>
+        <v>960</v>
       </c>
       <c r="AB44" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD44" t="n">
         <v>60</v>
       </c>
       <c r="AE44" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="AF44" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI44" t="n">
-        <v>230</v>
+        <v>960</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK44" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM44" t="n">
-        <v>220</v>
+        <v>960</v>
       </c>
       <c r="AN44" t="n">
         <v>3.05</v>
       </c>
       <c r="AO44" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,37 +6472,37 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H45" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I45" t="n">
         <v>2.72</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K45" t="n">
         <v>3.7</v>
       </c>
       <c r="L45" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O45" t="n">
         <v>1.31</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q45" t="n">
         <v>1.93</v>
@@ -6514,10 +6514,10 @@
         <v>3.3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="U45" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V45" t="n">
         <v>1.58</v>
@@ -6526,13 +6526,13 @@
         <v>1.52</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
         <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA45" t="n">
         <v>40</v>
@@ -6550,7 +6550,7 @@
         <v>29</v>
       </c>
       <c r="AF45" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
         <v>13.5</v>
@@ -6574,7 +6574,7 @@
         <v>80</v>
       </c>
       <c r="AN45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO45" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>1.36</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>2.76</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.04</v>
       </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>3.55</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>2.22</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>4.6</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN2" t="n">
         <v>38</v>
       </c>
-      <c r="AK2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -805,37 +805,37 @@
         <v>2.06</v>
       </c>
       <c r="G3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.16</v>
       </c>
-      <c r="H3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.18</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,16 +844,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
         <v>6.6</v>
@@ -865,7 +865,7 @@
         <v>100</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
         <v>5.7</v>
@@ -874,10 +874,10 @@
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -886,10 +886,10 @@
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AJ3" t="n">
         <v>80</v>
@@ -898,13 +898,13 @@
         <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="AM3" t="n">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="I4" t="n">
         <v>1.19</v>
       </c>
       <c r="J4" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.21</v>
@@ -961,31 +961,31 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.1</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.11</v>
-      </c>
       <c r="P4" t="n">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S4" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="W4" t="n">
         <v>1.03</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J5" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>4.5</v>
@@ -1096,7 +1096,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
@@ -1105,31 +1105,31 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>17.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z5" t="n">
         <v>12</v>
@@ -1141,7 +1141,7 @@
         <v>18.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>10.5</v>
@@ -1156,10 +1156,10 @@
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1168,13 +1168,13 @@
         <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM5" t="n">
         <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,34 +1231,34 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
         <v>27</v>
@@ -1270,10 +1270,10 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>14</v>
@@ -1288,19 +1288,19 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1345,109 +1345,109 @@
         <v>3.65</v>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="T7" t="n">
         <v>1.79</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
         <v>1.32</v>
       </c>
       <c r="X7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
         <v>14</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK7" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
         <v>1.49</v>
@@ -1501,85 +1501,85 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.27</v>
       </c>
-      <c r="S8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I9" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1636,55 +1636,55 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z9" t="n">
         <v>22</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -1693,28 +1693,28 @@
         <v>24</v>
       </c>
       <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>14</v>
       </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>42</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
         <v>50</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO9" t="n">
         <v>12.5</v>
@@ -1750,13 +1750,13 @@
         <v>5.6</v>
       </c>
       <c r="G10" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1765,94 +1765,94 @@
         <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>24</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE10" t="n">
         <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
@@ -1894,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
         <v>3.65</v>
@@ -1909,13 +1909,13 @@
         <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
         <v>1.32</v>
@@ -1924,25 +1924,25 @@
         <v>3.95</v>
       </c>
       <c r="T11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
         <v>2.04</v>
       </c>
       <c r="X11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1969,25 +1969,25 @@
         <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="n">
         <v>16</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.45</v>
@@ -2041,16 +2041,16 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.29</v>
@@ -2059,22 +2059,22 @@
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,31 +2083,31 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,85 +2152,85 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="I13" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.68</v>
       </c>
       <c r="W13" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>29</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2287,92 +2287,92 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G14" t="n">
         <v>4.1</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.9</v>
-      </c>
       <c r="H14" t="n">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.41</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P14" t="n">
         <v>1.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
         <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
         <v>85</v>
       </c>
       <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH14" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
@@ -2392,13 +2392,13 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>FC Tallinn</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>3.85</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.42</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,100 +2548,100 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Levadia Tallinn II</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.25</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>1.46</v>
+        <v>2.84</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>44</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.13</v>
+        <v>1.96</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>3.15</v>
+        <v>1.54</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>1.59</v>
       </c>
       <c r="G17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.45</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>2.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.7</v>
+        <v>1.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.12</v>
+        <v>1.86</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.44</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>2.58</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
-        <v>1.41</v>
+        <v>2.44</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
         <v>46</v>
       </c>
-      <c r="AG17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>270</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="AK17" t="n">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>310</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.81</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="P18" t="n">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.12</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>540</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,106 +2953,106 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,70 +3088,70 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JK Welco Elekter</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Elva</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>12.5</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>2.66</v>
       </c>
       <c r="K20" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>1.3</v>
+        <v>2.56</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="P20" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.15</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.15</v>
+        <v>5.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
         <v>3.45</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.3</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.79</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="n">
         <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO21" t="n">
         <v>23</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>14.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wieczysta Krakow</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.66</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>1.78</v>
+        <v>3.65</v>
       </c>
       <c r="H22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
         <v>4.5</v>
       </c>
-      <c r="I22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>5.8</v>
-      </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.81</v>
       </c>
       <c r="W22" t="n">
-        <v>2.28</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG22" t="n">
         <v>15</v>
       </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF22" t="n">
+      <c r="AH22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>250</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO22" t="n">
         <v>14</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Wieczysta Krakow</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.44</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="X23" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AF23" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.26</v>
+        <v>2.4</v>
       </c>
       <c r="G24" t="n">
-        <v>1.28</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
-        <v>16</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>18.5</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>6.8</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="P24" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.24</v>
+        <v>1.78</v>
       </c>
       <c r="U24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.65</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W24" t="n">
-        <v>4.6</v>
-      </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.8</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.6</v>
+        <v>170</v>
       </c>
       <c r="AK24" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AL24" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AM24" t="n">
-        <v>280</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.4</v>
+        <v>600</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>1.26</v>
       </c>
       <c r="G25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W25" t="n">
         <v>4.6</v>
       </c>
-      <c r="H25" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.28</v>
-      </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>18.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>440</v>
       </c>
       <c r="AF25" t="n">
-        <v>85</v>
+        <v>7.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>95</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AJ25" t="n">
-        <v>110</v>
+        <v>9.4</v>
       </c>
       <c r="AK25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL25" t="n">
         <v>55</v>
       </c>
-      <c r="AL25" t="n">
-        <v>130</v>
-      </c>
       <c r="AM25" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>50</v>
+        <v>4.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.22</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>4.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.55</v>
+        <v>1.94</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>1.97</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>2.82</v>
       </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="W26" t="n">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AB26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>15</v>
-      </c>
       <c r="AE26" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN26" t="n">
         <v>38</v>
       </c>
-      <c r="AM26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO26" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.49</v>
+        <v>2.24</v>
       </c>
       <c r="H27" t="n">
-        <v>8.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>9.4</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>4.7</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.36</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>1.81</v>
       </c>
       <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>44</v>
       </c>
-      <c r="Y27" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>460</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>360</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>13</v>
-      </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>370</v>
+        <v>95</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.199999999999999</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.3</v>
+        <v>1.45</v>
       </c>
       <c r="G28" t="n">
-        <v>5.8</v>
+        <v>1.49</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T28" t="n">
         <v>2.04</v>
       </c>
-      <c r="J28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="U28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W28" t="n">
         <v>3</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.2</v>
-      </c>
       <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>310</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN28" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>230</v>
-      </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Newcastle U21</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.51</v>
+        <v>5.2</v>
       </c>
       <c r="G29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.65</v>
       </c>
-      <c r="H29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="V29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X29" t="n">
         <v>7.2</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL29" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.9</v>
+        <v>210</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,123 +4433,123 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Newcastle U21</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.6</v>
+        <v>1.54</v>
       </c>
       <c r="G30" t="n">
-        <v>2.92</v>
+        <v>1.61</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>5.7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>5.3</v>
       </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.11</v>
       </c>
-      <c r="N30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P30" t="n">
-        <v>1.56</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.5</v>
+        <v>1.36</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.94</v>
       </c>
       <c r="S30" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
         <v>5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,91 +4573,91 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.7</v>
+        <v>2.74</v>
       </c>
       <c r="G31" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>1.87</v>
+        <v>2.82</v>
       </c>
       <c r="I31" t="n">
-        <v>1.99</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.49</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="W31" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="X31" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
         <v>1000</v>
@@ -4672,13 +4672,13 @@
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,91 +4708,91 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.26</v>
+        <v>3.75</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.95</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P32" t="n">
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S32" t="n">
         <v>4.2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V32" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="W32" t="n">
-        <v>1.72</v>
+        <v>1.29</v>
       </c>
       <c r="X32" t="n">
         <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
@@ -4804,10 +4804,10 @@
         <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ32" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4822,13 +4822,13 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="G33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.4</v>
       </c>
-      <c r="H33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="L33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2.34</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R33" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="V33" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="W33" t="n">
-        <v>1.41</v>
+        <v>1.71</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AD33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
         <v>4.1</v>
       </c>
-      <c r="G34" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="R34" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="W34" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="G35" t="n">
-        <v>14.5</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="O35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.25</v>
       </c>
-      <c r="P35" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.07</v>
-      </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.4</v>
+        <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
       <c r="AF35" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AG35" t="n">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AI35" t="n">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="AJ35" t="n">
-        <v>770</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="AL35" t="n">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="AM35" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>5.4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.22</v>
+        <v>15.5</v>
       </c>
       <c r="G36" t="n">
-        <v>2.48</v>
+        <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>1.29</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="M36" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>2.94</v>
+        <v>4.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.32</v>
+        <v>1.74</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="S36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V36" t="n">
         <v>4.3</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="X36" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE36" t="n">
-        <v>340</v>
+        <v>14.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ36" t="n">
-        <v>180</v>
+        <v>750</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM36" t="n">
         <v>250</v>
       </c>
-      <c r="AM36" t="n">
-        <v>580</v>
-      </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,123 +5378,123 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.64</v>
+        <v>2.3</v>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="H37" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="P37" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="W37" t="n">
-        <v>2.42</v>
+        <v>1.69</v>
       </c>
       <c r="X37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17.5</v>
+        <v>180</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AM37" t="n">
         <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,123 +5513,123 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="H38" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.15</v>
       </c>
-      <c r="K38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5.7</v>
-      </c>
       <c r="T38" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AA38" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB38" t="n">
-        <v>7</v>
+        <v>9.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AI38" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AK38" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM38" t="n">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>80</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,123 +5648,123 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O39" t="n">
         <v>1.54</v>
       </c>
-      <c r="H39" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="P39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y39" t="n">
         <v>12.5</v>
       </c>
-      <c r="J39" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>540</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK39" t="n">
         <v>30</v>
       </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL39" t="n">
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5788,73 +5788,73 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>1.63</v>
       </c>
       <c r="H40" t="n">
-        <v>2.74</v>
+        <v>6.2</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L40" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R40" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="U40" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="V40" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>1.53</v>
+        <v>2.52</v>
       </c>
       <c r="X40" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,13 +5863,13 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -5878,19 +5878,19 @@
         <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH40" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AK40" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -5899,7 +5899,7 @@
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G41" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="H41" t="n">
-        <v>2.9</v>
+        <v>2.72</v>
       </c>
       <c r="I41" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>2.48</v>
+        <v>1.83</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="S41" t="n">
-        <v>2.56</v>
+        <v>3.55</v>
       </c>
       <c r="T41" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="U41" t="n">
-        <v>2.62</v>
+        <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="W41" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Y41" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Z41" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="AA41" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="AE41" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="AF41" t="n">
-        <v>19.5</v>
+        <v>90</v>
       </c>
       <c r="AG41" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AH41" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="AK41" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AL41" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AM41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.7</v>
+        <v>2.48</v>
       </c>
       <c r="G42" t="n">
-        <v>4.3</v>
+        <v>2.52</v>
       </c>
       <c r="H42" t="n">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="I42" t="n">
-        <v>2.32</v>
+        <v>2.96</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="R42" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="T42" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="U42" t="n">
-        <v>1.03</v>
+        <v>2.6</v>
       </c>
       <c r="V42" t="n">
-        <v>1.76</v>
+        <v>1.51</v>
       </c>
       <c r="W42" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM42" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,99 +6188,99 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="G43" t="n">
-        <v>1.43</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>9.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="L43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="O43" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="R43" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S43" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="U43" t="n">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09</v>
+        <v>1.76</v>
       </c>
       <c r="W43" t="n">
-        <v>3.3</v>
+        <v>1.31</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD43" t="n">
         <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
         <v>1000</v>
@@ -6289,7 +6289,7 @@
         <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
@@ -6301,10 +6301,10 @@
         <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,123 +6323,123 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="G44" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="I44" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="X44" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
         <v>6.4</v>
       </c>
-      <c r="K44" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W44" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X44" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>320</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK44" t="n">
         <v>21</v>
       </c>
-      <c r="AC44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL44" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>960</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6448,135 +6448,270 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H45" t="n">
+        <v>24</v>
+      </c>
+      <c r="I45" t="n">
+        <v>34</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W45" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>960</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>US MLS</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>2025-10-27</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Minnesota Utd</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Seattle Sounders</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="F46" t="n">
         <v>2.92</v>
       </c>
-      <c r="H45" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L46" t="n">
         <v>1.41</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M46" t="n">
         <v>1.07</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N46" t="n">
         <v>4.1</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O46" t="n">
         <v>1.31</v>
       </c>
-      <c r="P45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R46" t="n">
         <v>1.4</v>
       </c>
-      <c r="S45" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T45" t="n">
+      <c r="S46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T46" t="n">
         <v>1.74</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U46" t="n">
         <v>2.26</v>
       </c>
-      <c r="V45" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X45" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y45" t="n">
+      <c r="V46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y46" t="n">
         <v>12</v>
       </c>
-      <c r="Z45" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="n">
+      <c r="Z46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD46" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC45" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE45" t="n">
+      <c r="AE46" t="n">
         <v>29</v>
       </c>
-      <c r="AF45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG45" t="n">
+      <c r="AF46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG46" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AH46" t="n">
         <v>17</v>
       </c>
-      <c r="AI45" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="AI46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL46" t="n">
         <v>44</v>
       </c>
-      <c r="AK45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO45" t="n">
+      <c r="AM46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO46" t="n">
         <v>23</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>El Gounah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.18</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>3.55</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.22</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>4.6</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>6.8</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AN2" t="n">
         <v>38</v>
       </c>
       <c r="AO2" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Armenian Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>FC Ararat Yerevan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>FC Noah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.06</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.12</v>
       </c>
-      <c r="H3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.56</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
         <v>12</v>
       </c>
-      <c r="Z3" t="n">
-        <v>100</v>
-      </c>
       <c r="AA3" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FC Ararat Yerevan</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>22</v>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="AI4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>2.34</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.86</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S5" t="n">
         <v>4.2</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.15</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO5" t="n">
         <v>600</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.45</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
         <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH6" t="n">
         <v>19</v>
       </c>
-      <c r="AC6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI6" t="n">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AK6" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.65</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.28</v>
+        <v>4.9</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.32</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>16</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL7" t="n">
         <v>42</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>17.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.49</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG8" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>450</v>
+        <v>48</v>
       </c>
       <c r="AN8" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="I9" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V9" t="n">
-        <v>1.63</v>
+        <v>2.34</v>
       </c>
       <c r="W9" t="n">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>18</v>
       </c>
-      <c r="Z9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>38</v>
-      </c>
       <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG9" t="n">
         <v>20</v>
       </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>14.5</v>
+        <v>300</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.6</v>
+        <v>1.97</v>
       </c>
       <c r="G10" t="n">
-        <v>5.7</v>
+        <v>1.98</v>
       </c>
       <c r="H10" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>1.72</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>1.87</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>2.02</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>21</v>
-      </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>85</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>8.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.92</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
-      </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
         <v>3.55</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19</v>
-      </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>80</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,97 +2008,97 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>6.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>7.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>1.58</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>1.66</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.25</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.16</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Y12" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2143,103 +2143,103 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>8.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="I13" t="n">
-        <v>1.59</v>
+        <v>2.34</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2257,13 +2257,13 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>FC Tallinn</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>2.26</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>1.81</v>
       </c>
       <c r="T14" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="X14" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD14" t="n">
         <v>15</v>
       </c>
-      <c r="Y14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AE14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Tallinn</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>2.68</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>2.68</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="N15" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="O15" t="n">
-        <v>1.1</v>
+        <v>1.87</v>
       </c>
       <c r="P15" t="n">
-        <v>3.15</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.12</v>
       </c>
       <c r="S15" t="n">
-        <v>1.76</v>
+        <v>9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>3.05</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AA15" t="n">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.5</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>180</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>540</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>540</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.64</v>
+        <v>1.62</v>
       </c>
       <c r="G16" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>1.94</v>
+        <v>2.72</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="W16" t="n">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
         <v>25</v>
       </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Levadia Tallinn II</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.59</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
-        <v>1.69</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>4.7</v>
+        <v>2.84</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.86</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.35</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.68</v>
-      </c>
       <c r="K18" t="n">
-        <v>2.74</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.7</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>70</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,106 +2953,106 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>2.78</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>1.87</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J20" t="n">
         <v>4.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.66</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.63</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JK Welco Elekter</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Elva</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.14</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.84</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="Y21" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>38</v>
+        <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AB21" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>19.5</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Wieczysta Krakow</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>1.65</v>
       </c>
       <c r="G22" t="n">
-        <v>3.65</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.24</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.16</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="V22" t="n">
-        <v>1.81</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>2.32</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Z22" t="n">
-        <v>15.5</v>
+        <v>130</v>
       </c>
       <c r="AA22" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
         <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>42</v>
-      </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>6.2</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wieczysta Krakow</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.67</v>
+        <v>2.46</v>
       </c>
       <c r="G23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.77</v>
       </c>
-      <c r="H23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="X23" t="n">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>12</v>
       </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="n">
-        <v>16.5</v>
+        <v>44</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="AO23" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.54</v>
+        <v>1.32</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>13.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>5.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="V24" t="n">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>4.1</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>760</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>7.6</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="AJ24" t="n">
-        <v>170</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK24" t="n">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>600</v>
+        <v>5.3</v>
       </c>
       <c r="AO24" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.26</v>
+        <v>3.9</v>
       </c>
       <c r="G25" t="n">
-        <v>1.28</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>16.5</v>
+        <v>2.04</v>
       </c>
       <c r="I25" t="n">
-        <v>19.5</v>
+        <v>2.08</v>
       </c>
       <c r="J25" t="n">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="T25" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="V25" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="W25" t="n">
-        <v>4.6</v>
+        <v>1.33</v>
       </c>
       <c r="X25" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="n">
         <v>44</v>
       </c>
-      <c r="Y25" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>210</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>440</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>95</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.9</v>
+        <v>32</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>4.4</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
-        <v>1.94</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.97</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>2.82</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="V26" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
         <v>17</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN26" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="n">
+      <c r="AO26" t="n">
         <v>38</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.2</v>
+        <v>1.47</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="U27" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="W27" t="n">
-        <v>1.81</v>
+        <v>3.05</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>24</v>
-      </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.45</v>
+        <v>5.4</v>
       </c>
       <c r="G28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.49</v>
       </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.14</v>
-      </c>
       <c r="Q28" t="n">
-        <v>1.81</v>
+        <v>2.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="Y28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>210</v>
+      </c>
+      <c r="AO28" t="n">
         <v>29</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Newcastle U21</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5.2</v>
+        <v>1.54</v>
       </c>
       <c r="G29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+      <c r="I29" t="n">
         <v>5.7</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="M29" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="N29" t="n">
-        <v>2.52</v>
+        <v>7.6</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.96</v>
+        <v>1.35</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
-        <v>6.2</v>
+        <v>1.93</v>
       </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>1.48</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>2.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="W29" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.2</v>
+        <v>130</v>
       </c>
       <c r="Z29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="AF29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,75 +4433,75 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Newcastle U21</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.54</v>
+        <v>2.76</v>
       </c>
       <c r="G30" t="n">
-        <v>1.61</v>
+        <v>3.05</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="K30" t="n">
-        <v>6.2</v>
+        <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>6.8</v>
+        <v>2.78</v>
       </c>
       <c r="O30" t="n">
-        <v>1.11</v>
+        <v>1.49</v>
       </c>
       <c r="P30" t="n">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.36</v>
+        <v>2.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.94</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>1.94</v>
+        <v>4.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -4513,10 +4513,10 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4528,7 +4528,7 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
@@ -4537,7 +4537,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4573,91 +4573,91 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.74</v>
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="H31" t="n">
-        <v>2.82</v>
+        <v>2.24</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="J31" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="R31" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
         <v>1000</v>
@@ -4669,16 +4669,16 @@
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
@@ -4687,7 +4687,7 @@
         <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -4708,112 +4708,112 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.75</v>
+        <v>2.24</v>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="H32" t="n">
-        <v>2.2</v>
+        <v>3.55</v>
       </c>
       <c r="I32" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="O32" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P32" t="n">
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="V32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.72</v>
       </c>
-      <c r="W32" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
         <v>40</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AC32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>440</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>900</v>
       </c>
-      <c r="AB32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
@@ -4822,13 +4822,13 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="G33" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.65</v>
       </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>1.63</v>
+        <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.34</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="U33" t="n">
-        <v>1.76</v>
+        <v>2.36</v>
       </c>
       <c r="V33" t="n">
-        <v>1.35</v>
+        <v>1.74</v>
       </c>
       <c r="W33" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB33" t="n">
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="I34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2.34</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R34" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="U34" t="n">
-        <v>2.3</v>
+        <v>1.69</v>
       </c>
       <c r="V34" t="n">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="W34" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB34" t="n">
         <v>13.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
         <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AF34" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AH34" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="n">
-        <v>46</v>
+        <v>540</v>
       </c>
       <c r="AM34" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.1</v>
+        <v>11.5</v>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>12</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>1.34</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="P35" t="n">
-        <v>1.64</v>
+        <v>2.22</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>3.05</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="U35" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.84</v>
+        <v>4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
         <v>7.8</v>
       </c>
       <c r="Z35" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AG35" t="n">
-        <v>19.5</v>
+        <v>46</v>
       </c>
       <c r="AH35" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="n">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AK35" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="n">
-        <v>540</v>
+        <v>190</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>75</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15.5</v>
+        <v>2.34</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>2.46</v>
       </c>
       <c r="H36" t="n">
-        <v>1.29</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>1.3</v>
+        <v>3.85</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="K36" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>4.8</v>
+        <v>2.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="R36" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="T36" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
-        <v>4.3</v>
+        <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.06</v>
+        <v>1.68</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>9.4</v>
+        <v>350</v>
       </c>
       <c r="AB36" t="n">
-        <v>44</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>14.5</v>
+        <v>340</v>
       </c>
       <c r="AF36" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AG36" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>46</v>
+        <v>460</v>
       </c>
       <c r="AJ36" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="AK36" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AM36" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="G37" t="n">
-        <v>2.44</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>2.94</v>
+        <v>4.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="P37" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W37" t="n">
         <v>2.32</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.69</v>
-      </c>
       <c r="X37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD37" t="n">
         <v>21</v>
       </c>
-      <c r="Y37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE37" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="AM37" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,123 +5513,123 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="G38" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="H38" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="L38" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N38" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="P38" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="T38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W38" t="n">
         <v>1.86</v>
       </c>
-      <c r="U38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2.38</v>
-      </c>
       <c r="X38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD38" t="n">
         <v>21</v>
       </c>
-      <c r="Y38" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>22</v>
-      </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AK38" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AL38" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,123 +5648,123 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
         <v>4.9</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="S39" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="T39" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="W39" t="n">
-        <v>1.89</v>
+        <v>2.62</v>
       </c>
       <c r="X39" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AK39" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5788,118 +5788,118 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="G40" t="n">
-        <v>1.63</v>
+        <v>2.88</v>
       </c>
       <c r="H40" t="n">
-        <v>6.2</v>
+        <v>2.74</v>
       </c>
       <c r="I40" t="n">
-        <v>8.199999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R40" t="n">
         <v>1.36</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S40" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T40" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="V40" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="W40" t="n">
-        <v>2.52</v>
+        <v>1.53</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC40" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD40" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG40" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ40" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G41" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="H41" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L41" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
-        <v>1.32</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="V41" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="W41" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="X41" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Z41" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM41" t="n">
         <v>60</v>
       </c>
-      <c r="AC41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="G42" t="n">
-        <v>2.52</v>
+        <v>4.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="J42" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="R42" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="U42" t="n">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="V42" t="n">
-        <v>1.51</v>
+        <v>1.74</v>
       </c>
       <c r="W42" t="n">
-        <v>1.65</v>
+        <v>1.31</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Z42" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>44</v>
+        <v>900</v>
       </c>
       <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC42" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD42" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE42" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,123 +6188,123 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.8</v>
+        <v>1.39</v>
       </c>
       <c r="G43" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
-        <v>2.2</v>
+        <v>11</v>
       </c>
       <c r="I43" t="n">
-        <v>2.3</v>
+        <v>14</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="K43" t="n">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="L43" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="O43" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="R43" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S43" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.93</v>
+        <v>2.52</v>
       </c>
       <c r="U43" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>1.76</v>
+        <v>1.08</v>
       </c>
       <c r="W43" t="n">
-        <v>1.31</v>
+        <v>3.45</v>
       </c>
       <c r="X43" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.4</v>
+        <v>36</v>
       </c>
       <c r="Z43" t="n">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="AA43" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC43" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
         <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
         <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,123 +6323,123 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="G44" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="H44" t="n">
-        <v>9.6</v>
+        <v>26</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J44" t="n">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="K44" t="n">
-        <v>5.2</v>
+        <v>11.5</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>3.55</v>
+        <v>8.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="P44" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="R44" t="n">
-        <v>1.31</v>
+        <v>1.97</v>
       </c>
       <c r="S44" t="n">
-        <v>3.85</v>
+        <v>1.92</v>
       </c>
       <c r="T44" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="U44" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="V44" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="W44" t="n">
-        <v>3.35</v>
+        <v>7.4</v>
       </c>
       <c r="X44" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>130</v>
+        <v>960</v>
       </c>
       <c r="AA44" t="n">
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>6.4</v>
+        <v>16.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG44" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>260</v>
+        <v>960</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL44" t="n">
         <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>330</v>
+        <v>960</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,261 +6458,126 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Minnesota Utd</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.16</v>
+        <v>3.25</v>
       </c>
       <c r="G45" t="n">
-        <v>1.19</v>
+        <v>3.35</v>
       </c>
       <c r="H45" t="n">
-        <v>24</v>
+        <v>2.38</v>
       </c>
       <c r="I45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA45" t="n">
         <v>34</v>
       </c>
-      <c r="J45" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W45" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X45" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB45" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AC45" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE45" t="n">
         <v>26</v>
       </c>
-      <c r="AD45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF45" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AG45" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AH45" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>960</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AL45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM45" t="n">
         <v>85</v>
       </c>
-      <c r="AM45" t="n">
-        <v>960</v>
-      </c>
       <c r="AN45" t="n">
-        <v>2.56</v>
+        <v>32</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Minnesota Utd</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Gounah</t>
+          <t>KuPS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.2</v>
+        <v>1.07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>8.199999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="T2" t="n">
-        <v>2.74</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>1.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>850</v>
       </c>
       <c r="AA2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>850</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Armenian Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,96 +788,96 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Ararat Yerevan</t>
+          <t>Gaziantep FK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Noah</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="I3" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="J3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V3" t="n">
+        <v>13</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26</v>
-      </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,22 +898,22 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.91</v>
       </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.81</v>
       </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.27</v>
-      </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>19.5</v>
+        <v>4.9</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>300</v>
+        <v>16.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O5" t="n">
         <v>2.34</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.19</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>18</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>3.55</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>3.95</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG5" t="n">
         <v>28</v>
       </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AJ5" t="n">
         <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>FK Dainava Alytus</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Hegelmann Litauen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>46</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>1.21</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>3.85</v>
+        <v>4.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.82</v>
+        <v>2.46</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.85</v>
+        <v>5.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
       <c r="AE6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="AM6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Flora Tallinn II</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>FC Tallinn</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>7.6</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1</v>
+        <v>1.14</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>FK Suduva</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KuPS</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="G8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.1</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="N8" t="n">
-        <v>6.8</v>
+        <v>1.77</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>2.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>1.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.49</v>
+        <v>5.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.77</v>
+        <v>1.05</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>17.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>4.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2.98</v>
+        <v>1.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>2.26</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>4.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>3.85</v>
       </c>
       <c r="AC8" t="n">
         <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="AM8" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Estonian Esiliiga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gaziantep FK</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Levadia Tallinn II</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>150</v>
       </c>
       <c r="H9" t="n">
-        <v>1.72</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>1.74</v>
+        <v>1.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.36</v>
+        <v>5.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.21</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
-        <v>2.34</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.5</v>
+        <v>5.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
         <v>20</v>
       </c>
-      <c r="AH9" t="n">
-        <v>18</v>
-      </c>
       <c r="AI9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
         <v>180</v>
       </c>
-      <c r="AK9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>60</v>
-      </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AN9" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.97</v>
+        <v>15.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.98</v>
+        <v>16.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>1.36</v>
       </c>
       <c r="I10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.8</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>3.7</v>
       </c>
       <c r="W10" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>5.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>990</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Paphos FC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>5.6</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>5.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>1.84</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S11" t="n">
         <v>4.4</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>2.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE11" t="n">
         <v>32</v>
       </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>19.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,37 +2008,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FK Dainava Alytus</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hegelmann Litauen</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="G12" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="I12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>3.95</v>
@@ -2047,88 +2047,88 @@
         <v>1.31</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE12" t="n">
         <v>42</v>
       </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
         <v>70</v>
       </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FK Suduva</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.16</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.34</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
         <v>3.35</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="AE13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN13" t="n">
         <v>70</v>
       </c>
-      <c r="AF13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Flora Tallinn II</t>
+          <t>JK Welco Elekter</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Tallinn</t>
+          <t>FC Elva</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H14" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J14" t="n">
         <v>2.88</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.4</v>
-      </c>
       <c r="K14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
         <v>5.3</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="AH14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO14" t="n">
         <v>55</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Wieczysta Krakow</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.8</v>
+        <v>1.63</v>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>1.68</v>
       </c>
       <c r="H15" t="n">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.68</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.68</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>2.12</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.87</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33</v>
+        <v>2.96</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.7</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.12</v>
+        <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>2.46</v>
       </c>
       <c r="X15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF15" t="n">
         <v>14</v>
       </c>
-      <c r="Y15" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>450</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>70</v>
-      </c>
       <c r="AG15" t="n">
-        <v>70</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>540</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>230</v>
+        <v>17.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>540</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Levadia Tallinn II</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.62</v>
+        <v>3.85</v>
       </c>
       <c r="G16" t="n">
-        <v>1.71</v>
+        <v>3.95</v>
       </c>
       <c r="H16" t="n">
-        <v>4.7</v>
+        <v>2.04</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>2.06</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
-        <v>1.21</v>
+        <v>1.94</v>
       </c>
       <c r="W16" t="n">
-        <v>2.4</v>
+        <v>1.34</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="AB16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>75</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>27</v>
-      </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
         <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.4</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Paphos FC</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>2.84</v>
+        <v>13.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.07</v>
       </c>
-      <c r="N17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK17" t="n">
         <v>14</v>
       </c>
-      <c r="AD17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
         <v>2.38</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.45</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.86</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S19" t="n">
-        <v>6.2</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
-        <v>1.69</v>
+        <v>2.46</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Estonian Esiliiga</t>
+          <t>Swedish Allsvenskan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JK Welco Elekter</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FC Elva</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
         <v>4.1</v>
       </c>
-      <c r="K20" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.6</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.94</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.91</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="S20" t="n">
-        <v>2.06</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.66</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="X20" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>16.5</v>
       </c>
       <c r="AI20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO20" t="n">
         <v>38</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Rapid Bucharest</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>1.44</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>1.46</v>
       </c>
       <c r="H21" t="n">
-        <v>2.16</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -3256,94 +3256,94 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="V21" t="n">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>3.2</v>
       </c>
       <c r="X21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.5</v>
+        <v>290</v>
       </c>
       <c r="AA21" t="n">
-        <v>27</v>
+        <v>420</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF21" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>27</v>
-      </c>
       <c r="AG21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>360</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
         <v>15</v>
       </c>
-      <c r="AH21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>40</v>
-      </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>34</v>
+        <v>6.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>13.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wieczysta Krakow</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L22" t="n">
         <v>1.65</v>
       </c>
-      <c r="G22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.27</v>
-      </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y22" t="n">
         <v>6.4</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X22" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>27</v>
-      </c>
       <c r="Z22" t="n">
-        <v>130</v>
+        <v>10.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18.5</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="n">
-        <v>16.5</v>
+        <v>110</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.2</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>English Premier League 2 - Div 1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Crystal Palace U21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Newcastle U21</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.46</v>
+        <v>1.52</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P23" t="n">
         <v>3.5</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.85</v>
-      </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>1.33</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>2.04</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>1.87</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AF23" t="n">
         <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM23" t="n">
         <v>55</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>580</v>
-      </c>
       <c r="AN23" t="n">
-        <v>38</v>
+        <v>4.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.3</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>1.32</v>
+        <v>2.92</v>
       </c>
       <c r="H24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
         <v>13.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AE24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM24" t="n">
         <v>150</v>
       </c>
-      <c r="AA24" t="n">
-        <v>760</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>220</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>240</v>
-      </c>
       <c r="AN24" t="n">
-        <v>5.3</v>
+        <v>48</v>
       </c>
       <c r="AO24" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OB</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="I25" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X25" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
         <v>13</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE25" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="AJ25" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
         <v>70</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swedish Allsvenskan</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:10:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>2.92</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="P26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.75</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
         <v>15</v>
       </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC26" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.5</v>
+        <v>600</v>
       </c>
       <c r="AO26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rapid Bucharest</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Atletico Huila</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.47</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>1.48</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>8</v>
       </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>34</v>
-      </c>
       <c r="Z27" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD27" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD27" t="n">
-        <v>34</v>
-      </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.4</v>
+        <v>32</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>15.5</v>
+        <v>300</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>470</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>210</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="H28" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P28" t="n">
         <v>2.06</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.49</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.96</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="S28" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.36</v>
+        <v>1.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="W28" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="X28" t="n">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AE28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="n">
         <v>24</v>
       </c>
-      <c r="AB28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN28" t="n">
         <v>40</v>
       </c>
-      <c r="AG28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>210</v>
-      </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English Premier League 2 - Div 1</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Crystal Palace U21</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Newcastle U21</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.54</v>
+        <v>12.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.61</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
         <v>5</v>
       </c>
-      <c r="I29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.6</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.35</v>
+        <v>1.71</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>1.52</v>
       </c>
       <c r="S29" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="T29" t="n">
-        <v>1.48</v>
+        <v>2.34</v>
       </c>
       <c r="U29" t="n">
-        <v>2.72</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.17</v>
+        <v>4.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>130</v>
+        <v>8.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AC29" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>160</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,123 +4433,123 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.25</v>
       </c>
-      <c r="J30" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K30" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="P30" t="n">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="V30" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.48</v>
+        <v>1.84</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,123 +4568,123 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Deportes Limache</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="G31" t="n">
-        <v>3.95</v>
+        <v>1.73</v>
       </c>
       <c r="H31" t="n">
-        <v>2.24</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S31" t="n">
         <v>3</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="W31" t="n">
-        <v>1.34</v>
+        <v>2.36</v>
       </c>
       <c r="X31" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AB31" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>70</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
         <v>70</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Chapecoense</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="G32" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="H32" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O32" t="n">
         <v>1.53</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.43</v>
-      </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.26</v>
       </c>
-      <c r="S32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.34</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="X32" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB32" t="n">
-        <v>40</v>
+        <v>6.8</v>
       </c>
       <c r="AC32" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="AJ32" t="n">
-        <v>900</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM32" t="n">
         <v>230</v>
       </c>
-      <c r="AM32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Boca Juniors de Cali</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.35</v>
       </c>
-      <c r="G33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K33" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.74</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>24</v>
       </c>
-      <c r="AG33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>60</v>
-      </c>
       <c r="AK33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
         <v>42</v>
       </c>
       <c r="AM33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO33" t="n">
         <v>80</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Atletico Huila</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>2.88</v>
       </c>
       <c r="H34" t="n">
-        <v>1.95</v>
+        <v>2.74</v>
       </c>
       <c r="I34" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
         <v>3.6</v>
       </c>
-      <c r="L34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="P34" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="S34" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="T34" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="U34" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.96</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.4</v>
+        <v>25</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF34" t="n">
         <v>44</v>
       </c>
-      <c r="AF34" t="n">
-        <v>60</v>
-      </c>
       <c r="AG34" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK34" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AL34" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO34" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11.5</v>
+        <v>2.6</v>
       </c>
       <c r="G35" t="n">
-        <v>12</v>
+        <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>1.32</v>
+        <v>2.78</v>
       </c>
       <c r="I35" t="n">
-        <v>1.34</v>
+        <v>2.82</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M35" t="n">
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="T35" t="n">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="n">
-        <v>1.72</v>
+        <v>2.76</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>1.54</v>
       </c>
       <c r="W35" t="n">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="X35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z35" t="n">
         <v>22</v>
       </c>
-      <c r="Y35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AA35" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="n">
-        <v>36</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE35" t="n">
+      <c r="AO35" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>540</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>240</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>5.8</v>
       </c>
     </row>
     <row r="36">
@@ -5243,117 +5243,117 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="G36" t="n">
-        <v>2.46</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="I36" t="n">
-        <v>3.85</v>
+        <v>2.36</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P36" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
         <v>1.93</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="W36" t="n">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
       </c>
       <c r="AA36" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>220</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL36" t="n">
         <v>350</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>250</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Deportes Limache</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.4</v>
+        <v>13.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="S37" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="T37" t="n">
-        <v>1.82</v>
+        <v>2.5</v>
       </c>
       <c r="U37" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="W37" t="n">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AA37" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AE37" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL37" t="n">
         <v>65</v>
       </c>
-      <c r="AF37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>32</v>
-      </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO37" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,123 +5513,123 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:45:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Deportivo Pasto</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="G38" t="n">
-        <v>2.16</v>
+        <v>1.14</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="I38" t="n">
-        <v>4.8</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>3.15</v>
+        <v>13</v>
       </c>
       <c r="K38" t="n">
-        <v>3.25</v>
+        <v>14.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="M38" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>2.68</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="P38" t="n">
-        <v>1.56</v>
+        <v>3.95</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.62</v>
+        <v>1.27</v>
       </c>
       <c r="R38" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="S38" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="T38" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="V38" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="W38" t="n">
-        <v>1.86</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X38" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>85</v>
+        <v>960</v>
       </c>
       <c r="AA38" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG38" t="n">
         <v>21</v>
       </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12</v>
-      </c>
       <c r="AH38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>540</v>
+        <v>960</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AK38" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM38" t="n">
-        <v>250</v>
+        <v>960</v>
       </c>
       <c r="AN38" t="n">
-        <v>29</v>
+        <v>2.2</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,936 +5648,126 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Minnesota Utd</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Boca Juniors de Cali</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.51</v>
+        <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>3.65</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>2.26</v>
       </c>
       <c r="I39" t="n">
-        <v>8.4</v>
+        <v>2.3</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="R39" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="S39" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="U39" t="n">
-        <v>1.74</v>
+        <v>2.26</v>
       </c>
       <c r="V39" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="W39" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG39" t="n">
         <v>15</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK39" t="n">
         <v>40</v>
       </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN39" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>19:15:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X40" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>260</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>19:45:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>FC Cincinnati</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Columbus</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X41" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y41" t="n">
         <v>16</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Nacional (Par)</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="G42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X42" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Brazilian Serie B</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Athletico-PR</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Amazonas FC</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W43" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="X43" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>960</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>21:45:00</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Deportivo Pasto</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="H44" t="n">
-        <v>26</v>
-      </c>
-      <c r="I44" t="n">
-        <v>30</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N44" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W44" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>960</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-10-27</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Minnesota Utd</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X45" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>18.5</v>
       </c>
     </row>
   </sheetData>
